--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF8426A-9A9E-47C1-BC23-897F1C1F31FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D81346B-5997-490B-831E-C082FFF1902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -941,6 +938,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1836.HK</t>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>262</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>263</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>264</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>821163500</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>265</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>266</v>
@@ -3692,25 +3696,25 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>267</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>267</v>
@@ -3728,19 +3732,19 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3873,7 +3877,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>943</v>
@@ -4121,15 +4125,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>1.03</v>
+        <v>0.13235201315505793</v>
       </c>
       <c r="D44" s="251">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.87</v>
+        <v>0.11179247713097126</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4143,15 +4147,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9688769865284786E-2</v>
+        <v>7.2433192686357242E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8863329886211423E-2</v>
+        <v>6.1181434599156113E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4192,13 +4196,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4540,7 +4544,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4558,7 +4562,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4566,26 +4570,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4594,10 +4598,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4646,7 +4650,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4667,7 +4671,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4685,7 +4689,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4742,20 +4746,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>1.03</v>
+        <v>0.13235201315505793</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>1.03</v>
+        <v>0.13235201315505793</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>1.03</v>
+        <v>0.13235201315505793</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4829,7 +4833,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4870,19 +4874,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>14.22</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4890,42 +4894,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>12136.796310725689</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>11676.94497</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4948,16 +4952,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4972,7 +4976,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>7.782276789347331</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4982,40 +4986,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5028,29 +5032,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5060,12 +5064,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5075,7 +5079,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5083,7 +5087,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5097,7 +5101,7 @@
         <v>0.75431095413462357</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5105,7 +5109,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5116,14 +5120,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>7.2979774463912414E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5135,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5151,16 +5155,16 @@
         <v>6.3176187869769956E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>1.0420562952698833E-2</v>
+        <v>261</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>11.863895576005444</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5171,7 +5175,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>6.6876204463825086</v>
+        <v>0.85933983426762339</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5183,11 +5187,11 @@
         <v>0.11297327149257705</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9688769865284786E-2</v>
+        <v>7.2433192686357242E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5204,12 +5208,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5217,42 +5221,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.95208059784862631</v>
+        <v>10.543758769498046</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.830070854366781</v>
+        <v>20.267008552778449</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.1200948209983839</v>
-      </c>
-      <c r="G29" s="272">
+        <v>12.404422081762407</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5913659603189401</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>17.623485698068219</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5262,7 +5266,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5273,14 +5277,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5290,7 +5294,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5300,14 +5304,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5317,7 +5321,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5332,14 +5336,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6324,16 +6328,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6351,7 +6355,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6384,7 +6388,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6751,7 +6755,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6802,7 +6806,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6853,7 +6857,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6904,7 +6908,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7006,7 +7010,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7159,7 +7163,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8230,7 +8234,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8299,7 +8303,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8503,7 +8507,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10401,7 +10405,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11453,11 +11457,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11468,11 +11472,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11484,11 +11488,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11702,19 +11706,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11724,18 +11728,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11812,7 +11816,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11872,7 +11876,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11935,7 +11939,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11965,7 +11969,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12098,72 +12102,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0420562952698834E-2</v>
+        <v>8.4289346074697902E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0420562952698833E-2</v>
+        <v>8.4289346074697874E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0420562952698833E-2</v>
+        <v>8.4289346074697874E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>1.03</v>
+        <v>0.13235201315505793</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>6.6876204463825069</v>
+        <v>0.85933983426762328</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>1.03</v>
+        <v>0.13235201315505793</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>6.6876204463825086</v>
+        <v>0.85933983426762339</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>1.03</v>
+        <v>0.13235201315505793</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>6.6876204463825086</v>
+        <v>0.85933983426762339</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9688769865284786E-2</v>
+        <v>7.2433192686357242E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9688769865284786E-2</v>
+        <v>7.2433192686357242E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9688769865284786E-2</v>
+        <v>7.2433192686357242E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12194,15 +12198,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12219,24 +12223,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>2.2529107688966246</v>
+        <v>24.949723510936522</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>2.2529107688966246</v>
+        <v>24.949723510936522</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12244,18 +12248,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>20.03511825716318</v>
+        <v>20.293453687645002</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>20.03511825716318</v>
+        <v>20.293453687645002</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12274,14 +12278,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12298,21 +12302,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>919780.98354290635</v>
+        <v>10186058.652137304</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.1200948209983839</v>
+        <v>12.404422081762407</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.1200948209983839</v>
+        <v>12.404422081762407</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.5913659603189401</v>
+        <v>17.623485698068219</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12361,27 +12365,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>919780.98354290635</v>
+        <v>10186058.652137304</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.95208059784862631</v>
+        <v>10.543758769498046</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.1200948209983839</v>
+        <v>12.404422081762407</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.1200948209983839</v>
+        <v>12.404422081762407</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.1200948209983839</v>
+        <v>12.404422081762407</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.5913659603189401</v>
+        <v>17.623485698068219</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12398,14 +12402,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12422,27 +12426,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8179605.2601751126</v>
+        <v>8285074.1582837235</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.4668454834498199</v>
+        <v>8.5760180944978259</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>9.9609946864115528</v>
+        <v>10.089433052350383</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>9.9609946864115528</v>
+        <v>10.089433052350383</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>9.9609946864115528</v>
+        <v>10.089433052350383</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.152005328213237</v>
+        <v>14.334483132522571</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12452,21 +12456,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12479,31 +12483,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4549693.1218590094</v>
+        <v>9235566.4052105136</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.7094630406492231</v>
+        <v>9.5598884319979369</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.5405447537049684</v>
+        <v>11.246927567056396</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.5405447537049684</v>
+        <v>11.246927567056396</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.5405447537049684</v>
+        <v>11.246927567056396</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.8716856442660887</v>
+        <v>15.978984415295395</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D81346B-5997-490B-831E-C082FFF1902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4BC334-14A7-429B-AB2F-B3224337698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>agree</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45624</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>821163500</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>1492651</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>1125923</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>44044+152022</f>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3877,7 +3878,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>943</v>
@@ -3897,7 +3898,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>817</v>
@@ -3917,7 +3918,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3933,7 +3934,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3949,7 +3950,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3965,7 +3966,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3981,7 +3982,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -3997,7 +3998,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4013,7 +4014,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4029,7 +4030,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4045,7 +4046,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4061,7 +4062,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4077,7 +4078,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4093,7 +4094,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4109,7 +4110,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4125,15 +4126,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13235201315505793</v>
+        <v>0.13234827478208905</v>
       </c>
       <c r="D44" s="251">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11179247713097126</v>
+        <v>0.11178931947613346</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4147,15 +4148,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2433192686357242E-2</v>
+        <v>7.2740112994350278E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1181434599156113E-2</v>
+        <v>6.1440677966101691E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4196,21 +4197,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4220,7 +4221,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4230,7 +4231,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4241,7 +4242,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4251,7 +4252,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4261,7 +4262,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4272,7 +4273,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4282,7 +4283,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4293,7 +4294,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4301,24 +4302,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4329,7 +4330,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4340,7 +4341,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4351,7 +4352,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4362,7 +4363,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4373,7 +4374,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4384,7 +4385,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4394,31 +4395,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4426,12 +4427,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4442,7 +4443,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4453,7 +4454,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4463,7 +4464,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4474,7 +4475,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4484,85 +4485,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4570,15 +4571,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4586,10 +4587,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4599,19 +4600,19 @@
         <v>(Numbers in 1000USD)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4629,7 +4630,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4650,7 +4651,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4671,7 +4672,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4689,7 +4690,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4710,7 +4711,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4728,7 +4729,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4746,20 +4747,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>0.13235201315505793</v>
+        <v>0.13234827478208905</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>0.13235201315505793</v>
+        <v>0.13234827478208905</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>0.13235201315505793</v>
+        <v>0.13234827478208905</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4874,7 +4875,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4886,15 +4887,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.22</v>
+        <v>14.16</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4903,7 +4904,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4914,7 +4915,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4923,11 +4924,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>11676.94497</v>
+        <v>11627.675160000001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4935,7 +4936,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4950,7 +4951,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4961,7 +4962,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4973,10 +4974,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782276789347331</v>
+        <v>7.7824966112772627</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4986,40 +4987,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5032,29 +5033,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5064,12 +5065,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5079,29 +5080,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.75431095413462357</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5109,7 +5110,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5120,26 +5121,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>7.2979774463912414E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5148,93 +5149,93 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.863895576005444</v>
+        <v>11.813503254993186</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.85933983426762339</v>
+        <v>0.85931556162732936</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.11297327149257705</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2433192686357242E-2</v>
+        <v>7.2740112994350278E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.543758769498046</v>
+        <v>10.56155018207426</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.267008552778449</v>
+        <v>20.301206860870554</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.404422081762407</v>
+        <v>12.425353155381483</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.623485698068219</v>
+        <v>17.653223357278744</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5242,21 +5243,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5266,7 +5267,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5277,14 +5278,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5294,7 +5295,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5304,14 +5305,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5321,7 +5322,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5336,14 +5337,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6323,21 +6324,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6348,14 +6349,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6377,7 +6378,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6388,7 +6389,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6399,7 +6400,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6449,7 +6450,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6500,7 +6501,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6551,7 +6552,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6602,7 +6603,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6653,7 +6654,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6704,7 +6705,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6755,7 +6756,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6806,7 +6807,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6857,7 +6858,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6908,7 +6909,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6959,7 +6960,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7010,7 +7011,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7061,7 +7062,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7112,7 +7113,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7163,7 +7164,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7214,7 +7215,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7265,7 +7266,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7316,7 +7317,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7367,7 +7368,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7418,7 +7419,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7469,7 +7470,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7520,7 +7521,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7571,7 +7572,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7622,7 +7623,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7673,7 +7674,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7724,7 +7725,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7775,7 +7776,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7826,7 +7827,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7877,7 +7878,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7928,7 +7929,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7979,7 +7980,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8030,7 +8031,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8081,7 +8082,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8132,7 +8133,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8183,7 +8184,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8234,7 +8235,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8252,7 +8253,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8303,7 +8304,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8354,7 +8355,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8405,7 +8406,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8456,7 +8457,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8507,7 +8508,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8558,7 +8559,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8609,7 +8610,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8627,7 +8628,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8678,7 +8679,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8729,7 +8730,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8746,7 +8747,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8796,7 +8797,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8846,7 +8847,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8896,7 +8897,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10255,7 +10256,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10265,12 +10266,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10284,7 +10285,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10294,7 +10295,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10312,10 +10313,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10325,7 +10326,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10339,7 +10340,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10350,7 +10351,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10362,7 +10363,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10380,7 +10381,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10399,32 +10400,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10441,7 +10442,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10452,7 +10453,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10469,7 +10470,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10480,7 +10481,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10497,7 +10498,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10508,7 +10509,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10525,7 +10526,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10536,7 +10537,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10553,7 +10554,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10563,7 +10564,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10585,7 +10586,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10607,7 +10608,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10628,7 +10629,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10653,7 +10654,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10680,7 +10681,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10701,7 +10702,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10718,7 +10719,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10730,13 +10731,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10758,7 +10759,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10778,7 +10779,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10787,7 +10788,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10807,7 +10808,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10820,7 +10821,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10840,7 +10841,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10853,7 +10854,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10870,7 +10871,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10886,7 +10887,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10911,7 +10912,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10921,7 +10922,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10938,7 +10939,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10948,7 +10949,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10965,7 +10966,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10975,7 +10976,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10995,7 +10996,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11005,7 +11006,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11022,7 +11023,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11032,7 +11033,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11058,7 +11059,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11085,7 +11086,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11112,7 +11113,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11133,7 +11134,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11154,7 +11155,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11175,7 +11176,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11196,7 +11197,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11213,7 +11214,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11231,7 +11232,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11250,7 +11251,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11269,7 +11270,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11286,7 +11287,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11299,7 +11300,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11316,7 +11317,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11329,7 +11330,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11346,7 +11347,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11356,7 +11357,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11373,7 +11374,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11389,14 +11390,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11408,12 +11409,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11443,7 +11444,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11454,7 +11455,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11469,7 +11470,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11480,12 +11481,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11509,11 +11510,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11523,7 +11524,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11544,7 +11545,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11565,7 +11566,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11586,7 +11587,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11601,7 +11602,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11632,11 +11633,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11646,7 +11647,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11667,7 +11668,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11682,7 +11683,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11704,7 +11705,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11712,15 +11713,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11729,22 +11730,22 @@
         <v>(Numbers in 1000USD)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11765,7 +11766,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11795,7 +11796,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11816,7 +11817,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11846,7 +11847,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11876,7 +11877,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11907,7 +11908,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11934,12 +11935,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11969,7 +11970,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11999,7 +12000,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12029,7 +12030,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12050,7 +12051,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12081,7 +12082,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12102,72 +12103,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4289346074697902E-2</v>
+        <v>8.4648895286614706E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4289346074697874E-2</v>
+        <v>8.4648895286614678E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4289346074697874E-2</v>
+        <v>8.4648895286614678E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>0.13235201315505793</v>
+        <v>0.13234827478208905</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.85933983426762328</v>
+        <v>0.85931556162732914</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>0.13235201315505793</v>
+        <v>0.13234827478208905</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.85933983426762339</v>
+        <v>0.85931556162732936</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>0.13235201315505793</v>
+        <v>0.13234827478208905</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.85933983426762339</v>
+        <v>0.85931556162732936</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2433192686357242E-2</v>
+        <v>7.2740112994350278E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2433192686357242E-2</v>
+        <v>7.2740112994350278E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2433192686357242E-2</v>
+        <v>7.2740112994350278E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12184,27 +12185,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12223,24 +12224,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>24.949723510936522</v>
+        <v>24.991823376302342</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>24.949723510936522</v>
+        <v>24.991823376302342</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12248,18 +12249,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>20.293453687645002</v>
+        <v>20.32250929306629</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>20.293453687645002</v>
+        <v>20.32250929306629</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12278,51 +12279,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10186058.652137304</v>
+        <v>10203246.485809103</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.404422081762407</v>
+        <v>12.425353155381483</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.404422081762407</v>
+        <v>12.425353155381483</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.623485698068219</v>
+        <v>17.653223357278744</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12340,7 +12341,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12361,31 +12362,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10186058.652137304</v>
+        <v>10203246.485809103</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.543758769498046</v>
+        <v>10.56155018207426</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.404422081762407</v>
+        <v>12.425353155381483</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.404422081762407</v>
+        <v>12.425353155381483</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.404422081762407</v>
+        <v>12.425353155381483</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.623485698068219</v>
+        <v>17.653223357278744</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12395,58 +12396,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8285074.1582837235</v>
+        <v>8296936.4981956212</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.5760180944978259</v>
+        <v>8.5882969998864755</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.089433052350383</v>
+        <v>10.103878823395855</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.089433052350383</v>
+        <v>10.103878823395855</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.089433052350383</v>
+        <v>10.103878823395855</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.334483132522571</v>
+        <v>14.355006848802086</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12456,58 +12457,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9235566.4052105136</v>
+        <v>9250091.4920023624</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.5598884319979369</v>
+        <v>9.5749235909803687</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.246927567056396</v>
+        <v>11.26461598938867</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.246927567056396</v>
+        <v>11.26461598938867</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.246927567056396</v>
+        <v>11.26461598938867</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.978984415295395</v>
+        <v>16.004115103040416</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12516,7 +12517,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4BC334-14A7-429B-AB2F-B3224337698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DAFCD39-1CD0-4C2F-BA6F-0E86FD41DDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="C44" s="251">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13234827478208905</v>
+        <v>0.13234651784677626</v>
       </c>
       <c r="D44" s="251">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11178931947613346</v>
+        <v>0.11178783546281101</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4152,11 +4152,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2740112994350278E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1440677966101691E-2</v>
+        <v>6.0669456066945605E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4751,16 +4751,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>0.13234827478208905</v>
+        <v>0.13234651784677626</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>0.13234827478208905</v>
+        <v>0.13234651784677626</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>0.13234827478208905</v>
+        <v>0.13234651784677626</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4797,7 +4797,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.16</v>
+        <v>14.34</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>11627.675160000001</v>
+        <v>11775.48459</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4977,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824966112772627</v>
+        <v>7.782599925994873</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.813503254993186</v>
+        <v>11.963516087673739</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.85931556162732936</v>
+        <v>0.8593041541355616</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2740112994350278E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5222,20 +5222,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.56155018207426</v>
+        <v>10.510113501671702</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.301206860870554</v>
+        <v>20.202336271696893</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.425353155381483</v>
+        <v>12.364839413731413</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.653223357278744</v>
+        <v>17.567248931910342</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12107,17 +12107,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4648895286614706E-2</v>
+        <v>8.3587466483229053E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4648895286614678E-2</v>
+        <v>8.3587466483229025E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4648895286614678E-2</v>
+        <v>8.3587466483229025E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12128,27 +12128,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>0.13234827478208905</v>
+        <v>0.13234651784677626</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.85931556162732914</v>
+        <v>0.85930415413556138</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>0.13234827478208905</v>
+        <v>0.13234651784677626</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.85931556162732936</v>
+        <v>0.8593041541355616</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>0.13234827478208905</v>
+        <v>0.13234651784677626</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.85931556162732936</v>
+        <v>0.8593041541355616</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12158,17 +12158,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2740112994350278E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2740112994350278E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2740112994350278E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12228,14 +12228,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>24.991823376302342</v>
+        <v>24.870108627091952</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>24.991823376302342</v>
+        <v>24.870108627091952</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12253,14 +12253,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>20.32250929306629</v>
+        <v>20.23616953130275</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>20.32250929306629</v>
+        <v>20.23616953130275</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12303,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10203246.485809103</v>
+        <v>10153554.809917634</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.425353155381483</v>
+        <v>12.364839413731412</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.425353155381483</v>
+        <v>12.364839413731412</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.653223357278744</v>
+        <v>17.567248931910342</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,27 +12366,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10203246.485809103</v>
+        <v>10153554.809917634</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.56155018207426</v>
+        <v>10.510113501671702</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.425353155381483</v>
+        <v>12.364839413731412</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.425353155381483</v>
+        <v>12.364839413731413</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.425353155381483</v>
+        <v>12.364839413731413</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.653223357278744</v>
+        <v>17.567248931910342</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12427,27 +12427,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8296936.4981956212</v>
+        <v>8261687.1345323548</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.5882969998864755</v>
+        <v>8.5518097971384517</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.103878823395855</v>
+        <v>10.060952702515825</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.103878823395855</v>
+        <v>10.060952702515825</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.103878823395855</v>
+        <v>10.060952702515825</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.355006848802086</v>
+        <v>14.294019898147207</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12488,27 +12488,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9250091.4920023624</v>
+        <v>9207620.9722249955</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.5749235909803687</v>
+        <v>9.5309616494050768</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.26461598938867</v>
+        <v>11.212896058123619</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.26461598938867</v>
+        <v>11.212896058123619</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.26461598938867</v>
+        <v>11.212896058123619</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.004115103040416</v>
+        <v>15.930634415028774</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DAFCD39-1CD0-4C2F-BA6F-0E86FD41DDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{604663BB-EFEA-43BB-BFC0-9F32B2401A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="C44" s="251">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13234651784677626</v>
+        <v>0.13234583670901828</v>
       </c>
       <c r="D44" s="251">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11178783546281101</v>
+        <v>0.1117872601328601</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4152,11 +4152,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.1527777777777773E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0669456066945605E-2</v>
+        <v>6.0416666666666667E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4751,16 +4751,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>0.13234651784677626</v>
+        <v>0.13234583670901828</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>0.13234651784677626</v>
+        <v>0.13234583670901828</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>0.13234651784677626</v>
+        <v>0.13234583670901828</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>11775.48459</v>
+        <v>11824.7544</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4977,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782599925994873</v>
+        <v>7.7826399803161621</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.963516087673739</v>
+        <v>12.013510811001199</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.8593041541355616</v>
+        <v>0.85929973162022466</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.1527777777777773E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5222,20 +5222,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.510113501671702</v>
+        <v>10.493308577412094</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.202336271696893</v>
+        <v>20.170034172308629</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.364839413731413</v>
+        <v>12.345068914602464</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.567248931910342</v>
+        <v>17.539160149833592</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12107,17 +12107,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3587466483229053E-2</v>
+        <v>8.3239613775871801E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3587466483229025E-2</v>
+        <v>8.3239613775871787E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3587466483229025E-2</v>
+        <v>8.3239613775871787E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12128,27 +12128,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>0.13234651784677626</v>
+        <v>0.13234583670901828</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.85930415413556138</v>
+        <v>0.85929973162022455</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>0.13234651784677626</v>
+        <v>0.13234583670901828</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.8593041541355616</v>
+        <v>0.85929973162022466</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>0.13234651784677626</v>
+        <v>0.13234583670901828</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.8593041541355616</v>
+        <v>0.85929973162022466</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12158,17 +12158,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.1527777777777773E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.1527777777777773E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.1527777777777773E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12228,14 +12228,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>24.870108627091952</v>
+        <v>24.830343091568484</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>24.870108627091952</v>
+        <v>24.830343091568484</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12253,14 +12253,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>20.23616953130275</v>
+        <v>20.207933224089139</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>20.23616953130275</v>
+        <v>20.207933224089139</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12303,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10153554.809917634</v>
+        <v>10137319.997656161</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.364839413731412</v>
+        <v>12.345068914602464</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.364839413731412</v>
+        <v>12.345068914602464</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.567248931910342</v>
+        <v>17.539160149833592</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,27 +12366,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10153554.809917634</v>
+        <v>10137319.997656161</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.510113501671702</v>
+        <v>10.493308577412094</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.364839413731412</v>
+        <v>12.345068914602464</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.364839413731413</v>
+        <v>12.345068914602464</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.364839413731413</v>
+        <v>12.345068914602464</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.567248931910342</v>
+        <v>17.539160149833592</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12427,27 +12427,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8261687.1345323548</v>
+        <v>8250159.2840825673</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.5518097971384517</v>
+        <v>8.5398771273567107</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.060952702515825</v>
+        <v>10.046914267478483</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.060952702515825</v>
+        <v>10.046914267478483</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.060952702515825</v>
+        <v>10.046914267478483</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.294019898147207</v>
+        <v>14.274074901316792</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12488,27 +12488,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9207620.9722249955</v>
+        <v>9193739.640869366</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.5309616494050768</v>
+        <v>9.5165928523844023</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.212896058123619</v>
+        <v>11.195991591040475</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.212896058123619</v>
+        <v>11.195991591040475</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.212896058123619</v>
+        <v>11.195991591040475</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.930634415028774</v>
+        <v>15.906617525575193</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{604663BB-EFEA-43BB-BFC0-9F32B2401A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A6DCDE-A84A-4729-A566-015FF4D06302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="C44" s="251">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13234583670901828</v>
+        <v>0.13234969117620959</v>
       </c>
       <c r="D44" s="251">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.1117872601328601</v>
+        <v>0.11179051584786635</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4751,16 +4751,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>0.13234583670901828</v>
+        <v>0.13234969117620959</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>0.13234583670901828</v>
+        <v>0.13234969117620959</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>0.13234583670901828</v>
+        <v>0.13234969117620959</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4977,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7826399803161621</v>
+        <v>7.7824133237202959</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.013510811001199</v>
+        <v>12.013860694944849</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.85929973162022466</v>
+        <v>0.85932475804119413</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5222,20 +5222,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.493308577412094</v>
+        <v>10.492885564423549</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.170034172308629</v>
+        <v>20.169221064948697</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.345068914602464</v>
+        <v>12.344571252262998</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.539160149833592</v>
+        <v>17.53845309995539</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12107,17 +12107,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3239613775871801E-2</v>
+        <v>8.3237189558954733E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3239613775871787E-2</v>
+        <v>8.3237189558954719E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3239613775871787E-2</v>
+        <v>8.3237189558954719E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12128,27 +12128,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>0.13234583670901828</v>
+        <v>0.13234969117620959</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.85929973162022455</v>
+        <v>0.8593247580411939</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>0.13234583670901828</v>
+        <v>0.13234969117620959</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.85929973162022466</v>
+        <v>0.85932475804119413</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>0.13234583670901828</v>
+        <v>0.13234969117620959</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.85929973162022466</v>
+        <v>0.85932475804119413</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12228,14 +12228,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>24.830343091568484</v>
+        <v>24.829342114845048</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>24.830343091568484</v>
+        <v>24.829342114845048</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12303,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10137319.997656161</v>
+        <v>10136911.335507665</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.345068914602464</v>
+        <v>12.344571252262998</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.345068914602464</v>
+        <v>12.344571252262998</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.539160149833592</v>
+        <v>17.53845309995539</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,27 +12366,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10137319.997656161</v>
+        <v>10136911.335507665</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.493308577412094</v>
+        <v>10.492885564423549</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.345068914602464</v>
+        <v>12.344571252262998</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.345068914602464</v>
+        <v>12.344571252262998</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.345068914602464</v>
+        <v>12.344571252262996</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.539160149833592</v>
+        <v>17.53845309995539</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12488,27 +12488,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9193739.640869366</v>
+        <v>9193535.309795117</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.5165928523844023</v>
+        <v>9.5163813458901299</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.195991591040475</v>
+        <v>11.19574275987074</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.195991591040475</v>
+        <v>11.19574275987074</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.195991591040475</v>
+        <v>11.19574275987074</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.906617525575193</v>
+        <v>15.906264000636092</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A6DCDE-A84A-4729-A566-015FF4D06302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F969012-25E0-484E-A40B-25F511E5C079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="C44" s="251">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13234969117620959</v>
+        <v>0.1323467448942536</v>
       </c>
       <c r="D44" s="251">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11179051584786635</v>
+        <v>0.11178802724077733</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4589,7 +4589,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4751,16 +4751,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>0.13234969117620959</v>
+        <v>0.1323467448942536</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>0.13234969117620959</v>
+        <v>0.1323467448942536</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>0.13234969117620959</v>
+        <v>0.1323467448942536</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4977,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824133237202959</v>
+        <v>7.7825865745544434</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.013860694944849</v>
+        <v>12.013593250263471</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.85932475804119413</v>
+        <v>0.85930562831745649</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5222,20 +5222,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.492885564423549</v>
+        <v>10.493208904636937</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.169221064948697</v>
+        <v>20.169842583233923</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.344571252262998</v>
+        <v>12.344951652514045</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.53845309995539</v>
+        <v>17.538993550638196</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12107,17 +12107,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3237189558954733E-2</v>
+        <v>8.3239042571885732E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3237189558954719E-2</v>
+        <v>8.3239042571885719E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3237189558954719E-2</v>
+        <v>8.3239042571885719E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12128,27 +12128,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>0.13234969117620959</v>
+        <v>0.1323467448942536</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.8593247580411939</v>
+        <v>0.85930562831745638</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>0.13234969117620959</v>
+        <v>0.1323467448942536</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.85932475804119413</v>
+        <v>0.85930562831745649</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>0.13234969117620959</v>
+        <v>0.1323467448942536</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.85932475804119413</v>
+        <v>0.85930562831745649</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12228,14 +12228,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>24.829342114845048</v>
+        <v>24.830107235624119</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>24.829342114845048</v>
+        <v>24.830107235624119</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12253,14 +12253,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>20.207933224089139</v>
+        <v>20.207933224089135</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>20.207933224089139</v>
+        <v>20.207933224089135</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12303,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10136911.335507665</v>
+        <v>10137223.706309218</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.344571252262998</v>
+        <v>12.344951652514045</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.344571252262998</v>
+        <v>12.344951652514045</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.53845309995539</v>
+        <v>17.538993550638196</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,27 +12366,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10136911.335507665</v>
+        <v>10137223.706309218</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.492885564423549</v>
+        <v>10.493208904636937</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.344571252262998</v>
+        <v>12.344951652514045</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.344571252262998</v>
+        <v>12.344951652514045</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.344571252262996</v>
+        <v>12.344951652514046</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.53845309995539</v>
+        <v>17.538993550638196</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12427,27 +12427,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8250159.2840825673</v>
+        <v>8250159.2840825664</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.5398771273567107</v>
+        <v>8.5398771273567089</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.046914267478483</v>
+        <v>10.046914267478481</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.046914267478483</v>
+        <v>10.046914267478481</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.046914267478483</v>
+        <v>10.046914267478481</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.274074901316792</v>
+        <v>14.274074901316791</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12488,27 +12488,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9193535.309795117</v>
+        <v>9193691.4951958898</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.5163813458901299</v>
+        <v>9.5165430159968238</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.19574275987074</v>
+        <v>11.195932959996263</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.19574275987074</v>
+        <v>11.195932959996263</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.19574275987074</v>
+        <v>11.195932959996263</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.906264000636092</v>
+        <v>15.906534225977493</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F969012-25E0-484E-A40B-25F511E5C079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB576F7-6544-4C7B-873D-13C33A816EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="C44" s="251">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.1323467448942536</v>
+        <v>0.13234731251635526</v>
       </c>
       <c r="D44" s="251">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11178802724077733</v>
+        <v>0.11178850668857192</v>
       </c>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
@@ -4751,16 +4751,16 @@
       </c>
       <c r="C98" s="238">
         <f>C44</f>
-        <v>0.1323467448942536</v>
+        <v>0.13234731251635526</v>
       </c>
       <c r="D98" s="267"/>
       <c r="E98" s="255">
         <f>F98</f>
-        <v>0.1323467448942536</v>
+        <v>0.13234731251635526</v>
       </c>
       <c r="F98" s="255">
         <f>C98</f>
-        <v>0.1323467448942536</v>
+        <v>0.13234731251635526</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4977,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825865745544434</v>
+        <v>7.7825531959533691</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5026,7 +5026,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5073,7 +5073,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.013593250263471</v>
+        <v>12.013644775376948</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
-        <v>0.85930562831745649</v>
+        <v>0.8593093137943234</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5222,20 +5222,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.493208904636937</v>
+        <v>10.949370374999921</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.169842583233923</v>
+        <v>21.343652275141672</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.344951652514045</v>
+        <v>12.881612205882261</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.538993550638196</v>
+        <v>18.559697630557977</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12107,17 +12107,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3239042571885732E-2</v>
+        <v>8.3238685569394441E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3239042571885719E-2</v>
+        <v>8.3238685569394427E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3239042571885719E-2</v>
+        <v>8.3238685569394427E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12128,27 +12128,27 @@
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
-        <v>0.1323467448942536</v>
+        <v>0.13234731251635526</v>
       </c>
       <c r="D88" s="167">
         <f>C88/C86</f>
-        <v>0.85930562831745638</v>
+        <v>0.85930931379432318</v>
       </c>
       <c r="E88" s="171">
         <f>Inputs!E98</f>
-        <v>0.1323467448942536</v>
+        <v>0.13234731251635526</v>
       </c>
       <c r="F88" s="167">
         <f>E88/E86</f>
-        <v>0.85930562831745649</v>
+        <v>0.8593093137943234</v>
       </c>
       <c r="H88" s="171">
         <f>Inputs!F98</f>
-        <v>0.1323467448942536</v>
+        <v>0.13234731251635526</v>
       </c>
       <c r="I88" s="167">
         <f>H88/H86</f>
-        <v>0.85930562831745649</v>
+        <v>0.8593093137943234</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12228,14 +12228,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>24.830107235624119</v>
+        <v>25.909523296889006</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>24.830107235624119</v>
+        <v>25.909523296889006</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12253,14 +12253,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>20.207933224089135</v>
+        <v>21.086539016440842</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>20.207933224089135</v>
+        <v>21.086539016440842</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12303,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10137223.706309218</v>
+        <v>10577909.764624998</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.344951652514045</v>
+        <v>12.881612205882261</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.344951652514045</v>
+        <v>12.881612205882261</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.538993550638196</v>
+        <v>18.559697630557977</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,27 +12366,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10137223.706309218</v>
+        <v>10577909.764624998</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.493208904636937</v>
+        <v>10.949370374999921</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.344951652514045</v>
+        <v>12.881612205882261</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.344951652514045</v>
+        <v>12.881612205882261</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.344951652514046</v>
+        <v>12.881612205882261</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.538993550638196</v>
+        <v>18.559697630557977</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12427,27 +12427,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8250159.2840825664</v>
+        <v>8608861.861651374</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.5398771273567089</v>
+        <v>8.9111761328939583</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.046914267478481</v>
+        <v>10.483736626934069</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.046914267478481</v>
+        <v>10.483736626934069</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.046914267478481</v>
+        <v>10.483736626934069</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.274074901316791</v>
+        <v>15.10486255326421</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12488,27 +12488,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9193691.4951958898</v>
+        <v>9593385.8131381851</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.5165430159968238</v>
+        <v>9.9302732539469396</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.195932959996263</v>
+        <v>11.682674416408165</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.195932959996263</v>
+        <v>11.682674416408165</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.195932959996263</v>
+        <v>11.682674416408165</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.906534225977493</v>
+        <v>16.832280091911095</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB576F7-6544-4C7B-873D-13C33A816EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF06D12-AE29-47F6-803B-0220E9A5281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45624</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>821163500</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,395 +3806,395 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>1492651</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>1630771</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>1125923</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>1278644</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>44044+152022</f>
         <v>196066</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>44743+157174</f>
         <v>201917</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>943</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>944</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>817</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>846</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13234731251635526</v>
-      </c>
-      <c r="D44" s="251">
+        <v>0.13235518945132235</v>
+      </c>
+      <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11178850668857192</v>
-      </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+        <v>0.11179516002199072</v>
+      </c>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1527777777777773E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0416666666666667E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>6.0669456066945605E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4199,10 +4203,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4301,7 +4305,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4313,7 +4317,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4333,7 +4337,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4401,7 +4405,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4413,7 +4417,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4426,7 +4430,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4474,14 +4478,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4565,7 +4569,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4573,19 +4577,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4599,14 +4604,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4618,12 +4623,12 @@
         <f>C25</f>
         <v>1492651</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>1492651</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>1492651</v>
       </c>
@@ -4636,15 +4641,15 @@
         <f>C26</f>
         <v>1125923</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>1125923</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>1125923</v>
       </c>
@@ -4657,15 +4662,15 @@
         <f>C27+C28</f>
         <v>196066</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>196066.00000000003</v>
       </c>
@@ -4678,12 +4683,12 @@
         <f>C29</f>
         <v>943</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>943</v>
       </c>
@@ -4696,15 +4701,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4717,12 +4722,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4735,12 +4740,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>1089.3333333333333</v>
       </c>
@@ -4749,18 +4754,18 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13234731251635526</v>
-      </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+        <v>0.13235518945132235</v>
+      </c>
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13234731251635526</v>
-      </c>
-      <c r="F98" s="255">
+        <v>0.13235518945132235</v>
+      </c>
+      <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13234731251635526</v>
+        <v>0.13235518945132235</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4877,17 +4882,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.4</v>
+        <v>14.34</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4897,40 +4902,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>11824.7544</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>11775.48459</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4938,11 +4943,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4953,22 +4958,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4977,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825531959533691</v>
+        <v>7.7820900281270342</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4997,7 +5002,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5008,7 +5013,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5022,11 +5027,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5035,7 +5040,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5046,7 +5051,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5057,10 +5062,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5072,10 +5077,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5097,14 +5102,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.75431095413462357</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5112,7 +5117,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.13135421474946254</v>
       </c>
@@ -5123,7 +5128,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.2979774463912414E-4</v>
       </c>
@@ -5135,14 +5140,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5151,48 +5156,48 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.013644775376948</v>
+        <v>11.964299960813593</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.8593093137943234</v>
+        <v>0.85936045743640177</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.11297327149257705</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1527777777777773E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5211,10 +5216,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5222,22 +5227,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.949370374999921</v>
+        <v>10.509159332697452</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>21.343652275141672</v>
+        <v>20.200502186605931</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.881612205882261</v>
-      </c>
-      <c r="G29" s="273">
+        <v>12.363716861997004</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>18.559697630557977</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>17.565654075309507</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,17 +5254,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5269,7 +5274,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5277,17 +5282,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5297,24 +5302,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5324,7 +5329,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5343,10 +5348,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6328,16 +6333,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6351,11 +6356,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6388,7 +6393,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6452,47 +6457,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1492651</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1630771</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6554,47 +6559,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1125923</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1278644</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6605,47 +6610,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>366728</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>352127</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6656,47 +6661,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>196066</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>201917</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6707,47 +6712,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6758,47 +6763,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1128</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6806,50 +6811,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>9.1418108367146589E-2</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6857,50 +6862,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>169572.66666666666</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>149082</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6908,50 +6913,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.13744561158735902</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6962,47 +6967,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7013,47 +7018,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>943</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>944</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7064,47 +7069,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7115,47 +7120,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7166,47 +7171,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7217,47 +7222,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7268,47 +7273,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>168629.66666666666</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>148138</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7319,47 +7324,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.4729953619432807E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>6.812943080297601E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7370,7 +7375,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>126472.25</v>
       </c>
@@ -7418,50 +7423,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13832822548344562</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7578,43 +7583,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7629,43 +7634,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7680,43 +7685,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7731,43 +7736,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7782,43 +7787,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7833,43 +7838,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7884,43 +7889,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7986,43 +7991,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8037,43 +8042,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8088,43 +8093,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8186,47 +8191,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8255,47 +8260,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.78407330029783462</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8306,47 +8311,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.12381689397223768</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8357,47 +8362,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8408,47 +8413,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>5.7886729651189528E-4</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8459,47 +8464,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>6.9169736278116298E-4</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8510,47 +8515,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8561,47 +8566,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.11297327149257708</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>9.0839241070634694E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8630,47 +8635,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8681,47 +8686,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8749,47 +8754,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8799,47 +8804,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8849,47 +8854,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.5921358242618444E-3</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>6.3724365119010654E-3</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8899,47 +8904,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10237,8 +10242,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10287,7 +10292,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10384,7 +10389,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10431,7 +10436,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10459,7 +10464,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10487,7 +10492,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10515,7 +10520,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10528,7 +10533,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10543,7 +10548,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10570,7 +10575,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10592,7 +10597,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10614,7 +10619,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10635,7 +10640,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10660,7 +10665,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10687,7 +10692,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10708,7 +10713,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10873,7 +10878,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10902,7 +10907,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10928,7 +10933,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10955,7 +10960,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10982,7 +10987,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10998,7 +11003,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11012,7 +11017,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11039,7 +11044,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11065,7 +11070,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11092,7 +11097,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11119,7 +11124,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11140,7 +11145,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11161,7 +11166,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11182,7 +11187,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11203,7 +11208,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11349,7 +11354,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11458,11 +11463,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11473,11 +11478,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11489,11 +11494,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11589,8 +11594,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11670,8 +11675,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11707,19 +11712,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11729,18 +11734,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11751,17 +11756,17 @@
         <f>Data!C6</f>
         <v>1492651</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>1492651</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>1492651</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11772,23 +11777,23 @@
         <f>Data!C8</f>
         <v>1125923</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>1125923</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>1125923</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.75431095413462357</v>
       </c>
@@ -11798,21 +11803,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>366728</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>366728</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>366728</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11823,23 +11828,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>196066</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.13135421474946254</v>
       </c>
@@ -11853,54 +11858,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>7.2979774463912414E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>169572.66666666666</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>169572.66666666663</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.11360503337127476</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>169572.66666666663</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.11360503337127476</v>
       </c>
@@ -11914,27 +11919,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11946,23 +11951,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>943</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>943</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>943</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>6.3176187869769956E-4</v>
       </c>
@@ -11976,23 +11981,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12002,27 +12007,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>168629.66666666666</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.11297327149257708</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>168629.66666666663</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.11297327149257705</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>168629.66666666663</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.11297327149257705</v>
       </c>
@@ -12032,49 +12037,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>126472.25</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>8.4729953619432807E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>126472.24999999997</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>8.4729953619432793E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>126472.24999999997</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>8.4729953619432793E-2</v>
       </c>
@@ -12084,71 +12089,71 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.15401591765829825</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.15401591765829822</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.15401591765829822</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3238685569394441E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>8.3581990026602326E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3238685569394427E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>8.3581990026602312E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3238685569394427E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>8.3581990026602312E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13234731251635526</v>
-      </c>
-      <c r="D88" s="167">
+        <v>0.13235518945132235</v>
+      </c>
+      <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.85930931379432318</v>
-      </c>
-      <c r="E88" s="171">
+        <v>0.85936045743640166</v>
+      </c>
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13234731251635526</v>
-      </c>
-      <c r="F88" s="167">
+        <v>0.13235518945132235</v>
+      </c>
+      <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.8593093137943234</v>
-      </c>
-      <c r="H88" s="171">
+        <v>0.85936045743640177</v>
+      </c>
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13234731251635526</v>
-      </c>
-      <c r="I88" s="167">
+        <v>0.13235518945132235</v>
+      </c>
+      <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.8593093137943234</v>
+        <v>0.85936045743640177</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12156,21 +12161,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1527777777777773E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1527777777777773E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1527777777777773E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12192,22 +12197,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12217,9 +12222,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12227,15 +12232,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>25.909523296889006</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>24.867850774592611</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>25.909523296889006</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>24.867850774592611</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12243,24 +12248,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>21.086539016440842</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>20.236169531302746</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>21.086539016440842</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>20.236169531302746</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12281,14 +12289,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12303,21 +12311,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10577909.764624998</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>10152633.011406478</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.881612205882261</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>12.363716861997004</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.881612205882261</v>
+        <v>12.363716861997004</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>18.559697630557977</v>
+        <v>17.565654075309507</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12329,14 +12337,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12347,17 +12355,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12366,27 +12374,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10577909.764624998</v>
+        <v>10152633.011406478</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.949370374999921</v>
+        <v>10.509159332697452</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.881612205882261</v>
+        <v>12.363716861997004</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.881612205882261</v>
+        <v>12.363716861997004</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.881612205882261</v>
+        <v>12.363716861997004</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>18.559697630557977</v>
+        <v>17.565654075309507</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12405,14 +12413,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12427,27 +12435,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8608861.861651374</v>
+        <v>8261687.1345323529</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.9111761328939583</v>
+        <v>8.5518097971384499</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.483736626934069</v>
+        <v>10.060952702515824</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.483736626934069</v>
+        <v>10.060952702515824</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.483736626934069</v>
+        <v>10.060952702515824</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.10486255326421</v>
+        <v>14.294019898147203</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12466,14 +12474,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12488,27 +12496,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9593385.8131381851</v>
+        <v>9207160.0729694143</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.9302732539469396</v>
+        <v>9.5304845649179519</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.682674416408165</v>
+        <v>11.212334782256413</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.682674416408165</v>
+        <v>11.212334782256413</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.682674416408165</v>
+        <v>11.212334782256413</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.832280091911095</v>
+        <v>15.929836986728354</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF06D12-AE29-47F6-803B-0220E9A5281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97AB58A0-0499-4739-A683-0214C85D9378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>九興控股</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0007</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3690,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3722,7 +3725,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -4134,11 +4137,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13235518945132235</v>
+        <v>0.13234782067741493</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11179516002199072</v>
+        <v>0.11178893591199124</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4156,11 +4159,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.0839064649243472E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0669456066945605E-2</v>
+        <v>5.9834938101788172E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4580,7 +4583,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4756,16 +4761,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13235518945132235</v>
+        <v>0.13234782067741493</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13235518945132235</v>
+        <v>0.13234782067741493</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13235518945132235</v>
+        <v>0.13234782067741493</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4892,10 +4897,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.34</v>
+        <v>14.54</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4933,7 +4938,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>11775.48459</v>
+        <v>11939.717290000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4971,7 +4976,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v>Tier 3</v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4982,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7820900281270342</v>
+        <v>7.782523314158122</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5028,10 +5033,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5078,7 +5083,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5165,7 +5170,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.964299960813593</v>
+        <v>12.13049067566436</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5186,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.85936045743640177</v>
+        <v>0.85931261320043284</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5197,7 +5202,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.0839064649243472E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5227,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.509159332697452</v>
+        <v>10.45432993399826</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.200502186605931</v>
+        <v>18.321082345194288</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.363716861997004</v>
+        <v>12.299211687056777</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.565654075309507</v>
+        <v>15.93137595234286</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12112,17 +12117,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3581990026602326E-2</v>
+        <v>8.2436896143546337E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3581990026602312E-2</v>
+        <v>8.2436896143546323E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3581990026602312E-2</v>
+        <v>8.2436896143546323E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12133,27 +12138,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13235518945132235</v>
+        <v>0.13234782067741493</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.85936045743640166</v>
+        <v>0.85931261320043273</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13235518945132235</v>
+        <v>0.13234782067741493</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.85936045743640177</v>
+        <v>0.85931261320043284</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13235518945132235</v>
+        <v>0.13234782067741493</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.85936045743640177</v>
+        <v>0.85931261320043284</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12163,17 +12168,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.0839064649243472E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.0839064649243472E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>7.0839064649243472E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12222,7 +12227,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12233,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.867850774592611</v>
+        <v>24.738107827345644</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.867850774592611</v>
+        <v>24.738107827345644</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12254,21 +12259,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.236169531302746</v>
+        <v>20.143074477148037</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.236169531302746</v>
+        <v>20.143074477148037</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12311,21 +12316,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10152633.011406478</v>
+        <v>10099663.716184448</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.363716861997004</v>
+        <v>12.299211687056777</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.363716861997004</v>
+        <v>12.299211687056777</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.565654075309507</v>
+        <v>15.93137595234286</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,27 +12379,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10152633.011406478</v>
+        <v>10099663.716184448</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.509159332697452</v>
+        <v>10.45432993399826</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.363716861997004</v>
+        <v>12.299211687056777</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.363716861997004</v>
+        <v>12.299211687056777</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.363716861997004</v>
+        <v>12.299211687056777</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.565654075309507</v>
+        <v>15.93137595234286</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12435,27 +12440,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8261687.1345323529</v>
+        <v>8223679.8323100219</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.5518097971384499</v>
+        <v>8.5124678063059527</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.060952702515824</v>
+        <v>10.014668007418768</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.060952702515824</v>
+        <v>10.014668007418768</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.060952702515824</v>
+        <v>10.014668007418768</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.294019898147203</v>
+        <v>12.972168064396387</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12496,27 +12501,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9207160.0729694143</v>
+        <v>9161671.7742472347</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.5304845649179519</v>
+        <v>9.4833988701521061</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.212334782256413</v>
+        <v>11.156939847237773</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.212334782256413</v>
+        <v>11.156939847237773</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.212334782256413</v>
+        <v>11.156939847237773</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.929836986728354</v>
+        <v>14.451772008369623</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97AB58A0-0499-4739-A683-0214C85D9378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{406DFCE0-9EFE-4C16-BA20-FE4A05D298B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4137,11 +4137,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13234782067741493</v>
+        <v>0.13235451092757064</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11178893591199124</v>
+        <v>0.11179458689998686</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4159,11 +4159,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0839064649243472E-2</v>
+        <v>6.8758344459279044E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9834938101788172E-2</v>
+        <v>5.8077436582109475E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4761,16 +4761,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13234782067741493</v>
+        <v>0.13235451092757064</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13234782067741493</v>
+        <v>0.13235451092757064</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13234782067741493</v>
+        <v>0.13235451092757064</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.54</v>
+        <v>14.98</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>11939.717290000001</v>
+        <v>12301.02923</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782523314158122</v>
+        <v>7.7821299235026045</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.13049067566436</v>
+        <v>12.498207434332807</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.85931261320043284</v>
+        <v>0.85935605189337716</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0839064649243472E-2</v>
+        <v>6.8758344459279044E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.45432993399826</v>
+        <v>10.337205733124337</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>18.321082345194288</v>
+        <v>18.115823649288028</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.299211687056777</v>
+        <v>12.161418509558043</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.93137595234286</v>
+        <v>15.752890129815679</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12117,17 +12117,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2436896143546337E-2</v>
+        <v>8.0011474065711352E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2436896143546323E-2</v>
+        <v>8.0011474065711338E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2436896143546323E-2</v>
+        <v>8.0011474065711338E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12138,27 +12138,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13234782067741493</v>
+        <v>0.13235451092757064</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.85931261320043273</v>
+        <v>0.85935605189337705</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13234782067741493</v>
+        <v>0.13235451092757064</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.85931261320043284</v>
+        <v>0.85935605189337716</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13234782067741493</v>
+        <v>0.13235451092757064</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.85931261320043284</v>
+        <v>0.85935605189337716</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12168,17 +12168,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0839064649243472E-2</v>
+        <v>6.8758344459279044E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0839064649243472E-2</v>
+        <v>6.8758344459279044E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0839064649243472E-2</v>
+        <v>6.8758344459279044E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.738107827345644</v>
+        <v>24.460956529395101</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.738107827345644</v>
+        <v>24.460956529395101</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.143074477148037</v>
+        <v>19.948136028299462</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.143074477148037</v>
+        <v>19.948136028299462</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12316,21 +12316,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10099663.716184448</v>
+        <v>9986512.988273466</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.299211687056777</v>
+        <v>12.161418509558043</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.299211687056777</v>
+        <v>12.161418509558043</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.93137595234286</v>
+        <v>15.752890129815679</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12379,27 +12379,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10099663.716184448</v>
+        <v>9986512.988273466</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.45432993399826</v>
+        <v>10.337205733124337</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.299211687056777</v>
+        <v>12.161418509558043</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.299211687056777</v>
+        <v>12.161418509558043</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.299211687056777</v>
+        <v>12.161418509558043</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>15.93137595234286</v>
+        <v>15.752890129815679</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12440,27 +12440,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8223679.8323100219</v>
+        <v>8144093.6007167995</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.5124678063059527</v>
+        <v>8.4300867739607028</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.014668007418768</v>
+        <v>9.9177491458361207</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.014668007418768</v>
+        <v>9.9177491458361207</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.014668007418768</v>
+        <v>9.9177491458361207</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.972168064396387</v>
+        <v>12.846627431384018</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9161671.7742472347</v>
+        <v>9065303.2944951337</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.4833988701521061</v>
+        <v>9.3836462535425191</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.156939847237773</v>
+        <v>11.039583827697083</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.156939847237773</v>
+        <v>11.039583827697083</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.156939847237773</v>
+        <v>11.039583827697083</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.451772008369623</v>
+        <v>14.299758780599849</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406DFCE0-9EFE-4C16-BA20-FE4A05D298B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8946F26A-014E-43DC-840C-855525FF21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1836.HK</t>
   </si>
   <si>
@@ -954,9 +965,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -4137,11 +4145,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13235451092757064</v>
+        <v>0.13244851350439607</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11179458689998686</v>
+        <v>0.11187398713478115</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4159,11 +4167,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8758344459279044E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8077436582109475E-2</v>
+        <v>5.9345156889495224E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4280,7 +4288,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4392,7 +4400,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4761,16 +4769,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13235451092757064</v>
+        <v>0.13244851350439607</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13235451092757064</v>
+        <v>0.13244851350439607</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13235451092757064</v>
+        <v>0.13244851350439607</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4897,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.98</v>
+        <v>14.66</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4938,7 +4946,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12301.02923</v>
+        <v>12038.25691</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4987,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7821299235026045</v>
+        <v>7.7766067186991377</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5033,10 +5041,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5083,7 +5091,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5170,7 +5178,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.498207434332807</v>
+        <v>12.239910051364733</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5194,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.85935605189337716</v>
+        <v>0.85996639515045525</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5210,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8758344459279044E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5240,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.337205733124337</v>
+        <v>12.389795410891134</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>18.115823649288028</v>
+        <v>22.89329978615628</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.161418509558043</v>
+        <v>14.576229895166041</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.752890129815679</v>
+        <v>19.907217205353287</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12117,17 +12125,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0011474065711352E-2</v>
+        <v>8.1699946797280709E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0011474065711338E-2</v>
+        <v>8.1699946797280695E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0011474065711338E-2</v>
+        <v>8.1699946797280695E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12138,27 +12146,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13235451092757064</v>
+        <v>0.13244851350439607</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.85935605189337705</v>
+        <v>0.85996639515045514</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13235451092757064</v>
+        <v>0.13244851350439607</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.85935605189337716</v>
+        <v>0.85996639515045525</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13235451092757064</v>
+        <v>0.13244851350439607</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.85935605189337716</v>
+        <v>0.85996639515045525</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12168,17 +12176,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8758344459279044E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8758344459279044E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8758344459279044E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12227,7 +12235,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12238,14 +12246,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.460956529395101</v>
+        <v>29.318004766294575</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.460956529395101</v>
+        <v>29.318004766294575</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12266,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>19.948136028299462</v>
+        <v>23.907089998915865</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>19.948136028299462</v>
+        <v>23.907089998915865</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12316,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9986512.988273466</v>
+        <v>11969467.957519179</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.161418509558043</v>
+        <v>14.576229895166039</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.161418509558043</v>
+        <v>14.576229895166039</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.752890129815679</v>
+        <v>19.907217205353287</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12379,27 +12387,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9986512.988273466</v>
+        <v>11969467.957519179</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.337205733124337</v>
+        <v>12.389795410891134</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.161418509558043</v>
+        <v>14.576229895166039</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>12.161418509558043</v>
+        <v>14.576229895166041</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.161418509558043</v>
+        <v>14.576229895166041</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>15.752890129815679</v>
+        <v>19.907217205353287</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12440,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8144093.6007167995</v>
+        <v>9760389.5619980488</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.4300867739607028</v>
+        <v>10.103141612721878</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>9.9177491458361207</v>
+        <v>11.886048956143386</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>9.9177491458361207</v>
+        <v>11.886048956143386</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>9.9177491458361207</v>
+        <v>11.886048956143386</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.846627431384018</v>
+        <v>16.233152192658508</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12501,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9065303.2944951337</v>
+        <v>10864928.759758614</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.3836462535425191</v>
+        <v>11.246468511806505</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.039583827697083</v>
+        <v>13.231139425654712</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.039583827697083</v>
+        <v>13.231139425654714</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.039583827697083</v>
+        <v>13.231139425654714</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.299758780599849</v>
+        <v>18.0701846990059</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8946F26A-014E-43DC-840C-855525FF21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{571D34D7-5797-424C-96E7-E1B7B4F9D4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -4145,11 +4149,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13244851350439607</v>
+        <v>0.13244726553877398</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11187398713478115</v>
+        <v>0.11187293302789646</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4167,11 +4171,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0259208731241474E-2</v>
+        <v>7.0451436388508898E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9345156889495224E-2</v>
+        <v>5.9507523939808488E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4769,16 +4773,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13244851350439607</v>
+        <v>0.13244726553877398</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13244851350439607</v>
+        <v>0.13244726553877398</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13244851350439607</v>
+        <v>0.13244726553877398</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4905,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.66</v>
+        <v>14.62</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4946,7 +4950,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12038.25691</v>
+        <v>12005.41037</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4995,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766067186991377</v>
+        <v>7.7766799926757813</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5016,7 +5020,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5027,7 +5031,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5054,7 +5058,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5178,7 +5182,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.239910051364733</v>
+        <v>12.206398285094014</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5198,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.85996639515045525</v>
+        <v>0.85995829231510512</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5210,7 +5214,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>7.0451436388508898E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5240,20 +5244,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.389795410891134</v>
+        <v>12.402763334429217</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.89329978615628</v>
+        <v>22.917261324770578</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.576229895166041</v>
+        <v>14.591486275799079</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.907217205353287</v>
+        <v>19.928053325887461</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5288,8 +5292,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6315,12 +6319,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8746,118 +8750,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8865,107 +8870,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.5921358242618444E-3</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>6.3724365119010654E-3</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.5921358242618444E-3</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>6.3724365119010654E-3</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9533,7 +9585,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10216,6 +10270,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12125,17 +12180,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1699946797280709E-2</v>
+        <v>8.1924247975847381E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1699946797280695E-2</v>
+        <v>8.1924247975847367E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1699946797280695E-2</v>
+        <v>8.1924247975847367E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12146,27 +12201,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13244851350439607</v>
+        <v>0.13244726553877398</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.85996639515045514</v>
+        <v>0.8599582923151049</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13244851350439607</v>
+        <v>0.13244726553877398</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.85996639515045525</v>
+        <v>0.85995829231510512</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13244851350439607</v>
+        <v>0.13244726553877398</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.85996639515045525</v>
+        <v>0.85995829231510512</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12176,17 +12231,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>7.0451436388508898E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>7.0451436388508898E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>7.0451436388508898E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12246,14 +12301,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.318004766294575</v>
+        <v>29.348690797136076</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.318004766294575</v>
+        <v>29.348690797136076</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12274,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.907089998915865</v>
+        <v>23.928567296100972</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.907089998915865</v>
+        <v>23.928567296100972</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12324,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11969467.957519179</v>
+        <v>11981995.940437138</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.576229895166039</v>
+        <v>14.591486275799079</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.576229895166039</v>
+        <v>14.591486275799079</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.907217205353287</v>
+        <v>19.928053325887461</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12387,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11969467.957519179</v>
+        <v>11981995.940437138</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.389795410891134</v>
+        <v>12.402763334429217</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.576229895166039</v>
+        <v>14.591486275799079</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.576229895166041</v>
+        <v>14.591486275799079</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.576229895166041</v>
+        <v>14.591486275799079</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>19.907217205353287</v>
+        <v>19.928053325887461</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12448,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9760389.5619980488</v>
+        <v>9769157.9561135601</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.103141612721878</v>
+        <v>10.112217923344772</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.886048956143386</v>
+        <v>11.896726968640909</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.886048956143386</v>
+        <v>11.896726968640909</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.886048956143386</v>
+        <v>11.896726968640909</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>16.233152192658508</v>
+        <v>16.247735491333028</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12509,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10864928.759758614</v>
+        <v>10875576.948275348</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.246468511806505</v>
+        <v>11.257490628886995</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.231139425654712</v>
+        <v>13.244106622219995</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.231139425654714</v>
+        <v>13.244106622219995</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.231139425654714</v>
+        <v>13.244106622219995</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.0701846990059</v>
+        <v>18.087894408610246</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{571D34D7-5797-424C-96E7-E1B7B4F9D4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55CC273-1839-410C-ABC5-28B4ADDC7409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13244726553877398</v>
+        <v>0.13245759918637565</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11187293302789646</v>
+        <v>0.11188166144868623</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4171,11 +4171,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0451436388508898E-2</v>
+        <v>7.0547945205479454E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9507523939808488E-2</v>
+        <v>5.9589041095890409E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4773,16 +4773,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13244726553877398</v>
+        <v>0.13245759918637565</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13244726553877398</v>
+        <v>0.13245759918637565</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13244726553877398</v>
+        <v>0.13245759918637565</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.62</v>
+        <v>14.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12005.41037</v>
+        <v>11988.9871</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4999,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766799926757813</v>
+        <v>7.7760732968648272</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.206398285094014</v>
+        <v>12.190651116527624</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.85995829231510512</v>
+        <v>0.86002538698790765</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0451436388508898E-2</v>
+        <v>7.0547945205479454E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5244,20 +5244,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.402763334429217</v>
+        <v>12.407862131329917</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.917261324770578</v>
+        <v>22.926682649508017</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.591486275799079</v>
+        <v>14.597484860388139</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.928053325887461</v>
+        <v>19.936245782180887</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10310,8 +10310,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12180,17 +12180,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1924247975847381E-2</v>
+        <v>8.2030072917453761E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1924247975847367E-2</v>
+        <v>8.2030072917453747E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1924247975847367E-2</v>
+        <v>8.2030072917453747E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12201,27 +12201,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13244726553877398</v>
+        <v>0.13245759918637565</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.8599582923151049</v>
+        <v>0.86002538698790743</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13244726553877398</v>
+        <v>0.13245759918637565</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.85995829231510512</v>
+        <v>0.86002538698790765</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13244726553877398</v>
+        <v>0.13245759918637565</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.85995829231510512</v>
+        <v>0.86002538698790765</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12231,17 +12231,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0451436388508898E-2</v>
+        <v>7.0547945205479454E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0451436388508898E-2</v>
+        <v>7.0547945205479454E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0451436388508898E-2</v>
+        <v>7.0547945205479454E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12301,14 +12301,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.348690797136076</v>
+        <v>29.36075609336411</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.348690797136076</v>
+        <v>29.36075609336411</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.928567296100972</v>
+        <v>23.939355894646557</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.928567296100972</v>
+        <v>23.939355894646557</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11981995.940437138</v>
+        <v>11986921.759153336</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.591486275799079</v>
+        <v>14.597484860388139</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.591486275799079</v>
+        <v>14.597484860388139</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.928053325887461</v>
+        <v>19.936245782180887</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12402,7 +12402,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12441,28 +12441,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>11981995.940437138</v>
+        <f>C97+C98+$C$99</f>
+        <v>11986921.759153336</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.402763334429217</v>
+        <v>12.407862131329917</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>14.591486275799079</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>14.597484860388139</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.591486275799079</v>
+        <v>14.597484860388139</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.591486275799079</v>
+        <v>14.597484860388139</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>19.928053325887461</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>19.936245782180887</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9769157.9561135601</v>
+        <v>9773562.5459083728</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.112217923344772</v>
+        <v>10.116777187517609</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.896726968640909</v>
+        <v>11.902090808844246</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.896726968640909</v>
+        <v>11.902090808844246</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.896726968640909</v>
+        <v>11.902090808844246</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>16.247735491333028</v>
+        <v>16.255061057185834</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10875576.948275348</v>
+        <v>10880242.152530853</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.257490628886995</v>
+        <v>11.262319659423763</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.244106622219995</v>
+        <v>13.249787834616193</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.244106622219995</v>
+        <v>13.249787834616193</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.244106622219995</v>
+        <v>13.249787834616193</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.087894408610246</v>
+        <v>18.095653419683359</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55CC273-1839-410C-ABC5-28B4ADDC7409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57424F32-A24D-4DE1-BDB2-E57C5B318F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13245759918637565</v>
+        <v>0.13247951986976192</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11188166144868623</v>
+        <v>0.11190017697737172</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4171,11 +4171,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0547945205479454E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9589041095890409E-2</v>
+        <v>5.9345156889495224E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4773,16 +4773,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13245759918637565</v>
+        <v>0.13247951986976192</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13245759918637565</v>
+        <v>0.13247951986976192</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13245759918637565</v>
+        <v>0.13247951986976192</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.6</v>
+        <v>14.66</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>11988.9871</v>
+        <v>12038.25691</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4999,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7760732968648272</v>
+        <v>7.7747866312662763</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.190651116527624</v>
+        <v>12.24277542986583</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.86002538698790765</v>
+        <v>0.86016771437665784</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0547945205479454E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5244,20 +5244,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.407862131329917</v>
+        <v>12.385800824344329</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.926682649508017</v>
+        <v>22.885918771030124</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.597484860388139</v>
+        <v>14.571530381581564</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.936245782180887</v>
+        <v>19.900798931330545</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12180,17 +12180,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2030072917453761E-2</v>
+        <v>8.1680825212274544E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2030072917453747E-2</v>
+        <v>8.168082521227453E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2030072917453747E-2</v>
+        <v>8.168082521227453E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12201,27 +12201,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13245759918637565</v>
+        <v>0.13247951986976192</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.86002538698790743</v>
+        <v>0.86016771437665773</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13245759918637565</v>
+        <v>0.13247951986976192</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.86002538698790765</v>
+        <v>0.86016771437665784</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13245759918637565</v>
+        <v>0.13247951986976192</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.86002538698790765</v>
+        <v>0.86016771437665784</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12231,17 +12231,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0547945205479454E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0547945205479454E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0547945205479454E-2</v>
+        <v>7.0259208731241474E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12301,14 +12301,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.36075609336411</v>
+        <v>29.308552365868685</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.36075609336411</v>
+        <v>29.308552365868685</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.939355894646557</v>
+        <v>23.907089998915865</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.939355894646557</v>
+        <v>23.907089998915865</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11986921.759153336</v>
+        <v>11965608.888495851</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.597484860388139</v>
+        <v>14.571530381581564</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.597484860388139</v>
+        <v>14.571530381581564</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.936245782180887</v>
+        <v>19.900798931330545</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11986921.759153336</v>
+        <v>11965608.888495851</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.407862131329917</v>
+        <v>12.385800824344329</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.597484860388139</v>
+        <v>14.571530381581564</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.597484860388139</v>
+        <v>14.571530381581564</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.597484860388139</v>
+        <v>14.571530381581562</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.936245782180887</v>
+        <v>19.900798931330545</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9773562.5459083728</v>
+        <v>9760389.5619980488</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.116777187517609</v>
+        <v>10.103141612721878</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.902090808844246</v>
+        <v>11.886048956143386</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.902090808844246</v>
+        <v>11.886048956143386</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.902090808844246</v>
+        <v>11.886048956143386</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>16.255061057185834</v>
+        <v>16.233152192658508</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10880242.152530853</v>
+        <v>10862999.225246953</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.262319659423763</v>
+        <v>11.244471218533103</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.249787834616193</v>
+        <v>13.228789668862476</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.249787834616193</v>
+        <v>13.228789668862476</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.249787834616193</v>
+        <v>13.228789668862474</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.095653419683359</v>
+        <v>18.066975561994525</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57424F32-A24D-4DE1-BDB2-E57C5B318F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3EC9FC-C3F5-410E-B9ED-9C0D9E3C73D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13247951986976192</v>
+        <v>0.13248269958057024</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11190017697737172</v>
+        <v>0.1119028627525205</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4171,11 +4171,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0259208731241474E-2</v>
+        <v>6.9972826086956527E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9345156889495224E-2</v>
+        <v>5.9103260869565216E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4773,16 +4773,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13247951986976192</v>
+        <v>0.13248269958057024</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13247951986976192</v>
+        <v>0.13248269958057024</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13247951986976192</v>
+        <v>0.13248269958057024</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.66</v>
+        <v>14.72</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12038.25691</v>
+        <v>12087.52672</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4999,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747866312662763</v>
+        <v>7.7746000289916992</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5045,10 +5045,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5095,7 +5095,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.24277542986583</v>
+        <v>12.293177334963373</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.86016771437665784</v>
+        <v>0.86018835971550767</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>6.9972826086956527E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5244,20 +5244,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.385800824344329</v>
+        <v>11.293037335445387</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.885918771030124</v>
+        <v>20.320291469262877</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.571530381581564</v>
+        <v>13.285926276994573</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.900798931330545</v>
+        <v>17.669818668924243</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12180,17 +12180,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1680825212274544E-2</v>
+        <v>8.1345934639360643E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.168082521227453E-2</v>
+        <v>8.1345934639360629E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.168082521227453E-2</v>
+        <v>8.1345934639360629E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12201,27 +12201,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13247951986976192</v>
+        <v>0.13248269958057024</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.86016771437665773</v>
+        <v>0.86018835971550756</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13247951986976192</v>
+        <v>0.13248269958057024</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.86016771437665784</v>
+        <v>0.86018835971550767</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13247951986976192</v>
+        <v>0.13248269958057024</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.86016771437665784</v>
+        <v>0.86018835971550767</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12231,17 +12231,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>6.9972826086956527E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>6.9972826086956527E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0259208731241474E-2</v>
+        <v>6.9972826086956527E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12301,14 +12301,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.308552365868685</v>
+        <v>26.722743309828143</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.308552365868685</v>
+        <v>26.722743309828143</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.907089998915865</v>
+        <v>21.802941158273789</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.907089998915865</v>
+        <v>21.802941158273789</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11965608.888495851</v>
+        <v>10909917.722358834</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.571530381581564</v>
+        <v>13.285926276994573</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.571530381581564</v>
+        <v>13.285926276994573</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.900798931330545</v>
+        <v>17.669818668924243</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11965608.888495851</v>
+        <v>10909917.722358834</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.385800824344329</v>
+        <v>11.293037335445387</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.571530381581564</v>
+        <v>13.285926276994573</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.571530381581564</v>
+        <v>13.285926276994573</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.571530381581562</v>
+        <v>13.285926276994573</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.900798931330545</v>
+        <v>17.669818668924243</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9760389.5619980488</v>
+        <v>8901342.6273010802</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.103141612721878</v>
+        <v>9.213927839225585</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.886048956143386</v>
+        <v>10.839915104971277</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>11.886048956143386</v>
+        <v>10.839915104971277</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.886048956143386</v>
+        <v>10.839915104971277</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>16.233152192658508</v>
+        <v>14.416709102400931</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10862999.225246953</v>
+        <v>9905630.1748299561</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.244471218533103</v>
+        <v>10.253482587335487</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.228789668862476</v>
+        <v>12.062920690982924</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.228789668862476</v>
+        <v>12.062920690982924</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.228789668862474</v>
+        <v>12.062920690982924</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.066975561994525</v>
+        <v>16.043263885662586</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3EC9FC-C3F5-410E-B9ED-9C0D9E3C73D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E3AA09-215E-4625-8F3C-596267075BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4149,11 +4160,11 @@
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13248269958057024</v>
+        <v>0.13247713112439977</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.1119028627525205</v>
+        <v>0.11189815929925027</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4171,11 +4182,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9972826086956527E-2</v>
+        <v>6.9688768606224638E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9103260869565216E-2</v>
+        <v>5.8863328822733423E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4773,16 +4784,16 @@
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13248269958057024</v>
+        <v>0.13247713112439977</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13248269958057024</v>
+        <v>0.13247713112439977</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13248269958057024</v>
+        <v>0.13247713112439977</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4909,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.72</v>
+        <v>14.78</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4950,7 +4961,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>12087.52672</v>
+        <v>12136.79653</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4999,7 +5010,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7746000289916992</v>
+        <v>7.7749268213907881</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5182,7 +5193,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.293177334963373</v>
+        <v>12.342766587059709</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5209,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.86018835971550767</v>
+        <v>0.86015220464624509</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5214,7 +5225,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9972826086956527E-2</v>
+        <v>6.9688768606224638E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5244,20 +5255,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.293037335445387</v>
+        <v>11.276455801143571</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.320291469262877</v>
+        <v>20.290455243630035</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.285926276994573</v>
+        <v>13.266418589580672</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.669818668924243</v>
+        <v>17.643874124895685</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12180,17 +12191,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1345934639360643E-2</v>
+        <v>8.1019112931164969E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1345934639360629E-2</v>
+        <v>8.1019112931164955E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1345934639360629E-2</v>
+        <v>8.1019112931164955E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12201,27 +12212,27 @@
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13248269958057024</v>
+        <v>0.13247713112439977</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.86018835971550756</v>
+        <v>0.86015220464624498</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13248269958057024</v>
+        <v>0.13247713112439977</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.86018835971550767</v>
+        <v>0.86015220464624509</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13248269958057024</v>
+        <v>0.13247713112439977</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.86018835971550767</v>
+        <v>0.86015220464624509</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12231,17 +12242,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9972826086956527E-2</v>
+        <v>6.9688768606224638E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9972826086956527E-2</v>
+        <v>6.9688768606224638E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9972826086956527E-2</v>
+        <v>6.9688768606224638E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12301,14 +12312,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.722743309828143</v>
+        <v>26.683506382536688</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.722743309828143</v>
+        <v>26.683506382536688</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12340,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.802941158273789</v>
+        <v>21.774015185301476</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.802941158273789</v>
+        <v>21.774015185301476</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12390,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10909917.722358834</v>
+        <v>10893898.721485129</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.285926276994573</v>
+        <v>13.266418589580672</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.285926276994573</v>
+        <v>13.266418589580672</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.669818668924243</v>
+        <v>17.643874124895685</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12442,27 +12453,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10909917.722358834</v>
+        <v>10893898.721485129</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.293037335445387</v>
+        <v>11.276455801143571</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.285926276994573</v>
+        <v>13.266418589580672</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.285926276994573</v>
+        <v>13.266418589580672</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.285926276994573</v>
+        <v>13.266418589580672</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.669818668924243</v>
+        <v>17.643874124895685</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12514,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8901342.6273010802</v>
+        <v>8889533.2115720082</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.213927839225585</v>
+        <v>9.2017037165390398</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.839915104971277</v>
+        <v>10.825533784163577</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.839915104971277</v>
+        <v>10.825533784163577</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.839915104971277</v>
+        <v>10.825533784163577</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.416709102400931</v>
+        <v>14.397582447202511</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12575,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9905630.1748299561</v>
+        <v>9891715.9665285684</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.253482587335487</v>
+        <v>10.239079758841307</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.062920690982924</v>
+        <v>12.045976186872124</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.062920690982924</v>
+        <v>12.045976186872124</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.062920690982924</v>
+        <v>12.045976186872124</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.043263885662586</v>
+        <v>16.020728286049099</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E3AA09-215E-4625-8F3C-596267075BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82865E09-41B9-4F1A-97C9-5A942F383F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>821163500</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>1125923</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>44044+152022</f>
@@ -3892,7 +3917,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3908,7 +3933,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>943</v>
@@ -3928,7 +3953,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>817</v>
@@ -3948,7 +3973,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3980,7 +4005,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4012,7 +4037,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4028,7 +4053,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4060,7 +4085,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4108,7 +4133,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4124,7 +4149,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4140,7 +4165,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4156,15 +4181,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13247713112439977</v>
+        <v>0.13248093636603109</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11189815929925027</v>
+        <v>0.11190137343538549</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4178,15 +4203,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9688768606224638E-2</v>
+        <v>7.0163487738419628E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8863328822733423E-2</v>
+        <v>5.9264305177111717E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4227,21 +4252,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4251,7 +4276,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4261,7 +4286,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4272,7 +4297,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4282,7 +4307,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4292,7 +4317,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4303,7 +4328,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4313,7 +4338,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4324,7 +4349,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4332,24 +4357,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4360,7 +4385,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4371,7 +4396,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4382,7 +4407,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4393,7 +4418,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4404,7 +4429,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4415,7 +4440,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4425,31 +4450,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4457,12 +4482,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4473,7 +4498,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4484,7 +4509,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4494,7 +4519,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4505,7 +4530,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4515,25 +4540,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4545,55 +4570,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4601,10 +4626,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4612,18 +4637,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4632,20 +4657,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4663,7 +4688,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4684,7 +4709,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4705,7 +4730,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4723,7 +4748,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4744,7 +4769,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4762,7 +4787,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4780,20 +4805,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13247713112439977</v>
+        <v>0.13248093636603109</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13247713112439977</v>
+        <v>0.13248093636603109</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13247713112439977</v>
+        <v>0.13248093636603109</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4908,62 +4933,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.78</v>
+        <v>14.68</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>12136.79653</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>12054.680179999999</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4986,16 +5011,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5010,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7749268213907881</v>
+        <v>7.7747035026550293</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5020,40 +5045,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5066,29 +5091,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5098,12 +5123,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5113,29 +5138,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.75431095413462357</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5143,7 +5168,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5154,26 +5179,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.2979774463912414E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5182,50 +5207,50 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.342766587059709</v>
+        <v>12.259608796253545</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.86015220464624509</v>
+        <v>0.86017691145375674</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.11297327149257705</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9688768606224638E-2</v>
+        <v>7.0163487738419628E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5235,62 +5260,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.276455801143571</v>
+        <v>11.304823335907482</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.290455243630035</v>
+        <v>20.341498781125292</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.266418589580672</v>
-      </c>
-      <c r="G29" s="274">
+        <v>13.299792159891156</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.643874124895685</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>17.688259809674168</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5300,25 +5325,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5328,7 +5353,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5338,14 +5363,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5355,7 +5380,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5370,14 +5395,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6330,12 +6355,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6362,16 +6387,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6389,7 +6414,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6422,7 +6447,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6433,7 +6458,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6585,7 +6610,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6636,7 +6661,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6687,7 +6712,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6738,7 +6763,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6789,7 +6814,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6840,7 +6865,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6891,7 +6916,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6942,7 +6967,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6993,7 +7018,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7044,7 +7069,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7095,7 +7120,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7146,7 +7171,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7197,7 +7222,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7248,7 +7273,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7299,7 +7324,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7350,7 +7375,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7401,7 +7426,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7452,7 +7477,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7503,7 +7528,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7656,7 +7681,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7707,7 +7732,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7809,7 +7834,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8013,7 +8038,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8064,7 +8089,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8115,7 +8140,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8166,7 +8191,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8217,7 +8242,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8268,7 +8293,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8286,7 +8311,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8337,7 +8362,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8388,7 +8413,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8439,7 +8464,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8490,7 +8515,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8541,7 +8566,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8592,7 +8617,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8643,7 +8668,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8660,50 +8685,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8712,10 +8737,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8763,167 +8788,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8931,112 +8957,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.5921358242618444E-3</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>6.3724365119010654E-3</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.5921358242618444E-3</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>6.3724365119010654E-3</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9599,7 +9815,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10282,6 +10500,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10321,8 +10540,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10340,7 +10559,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10355,7 +10574,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10369,7 +10588,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10379,7 +10598,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10397,10 +10616,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10409,12 +10628,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10424,7 +10644,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10434,8 +10654,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10447,7 +10668,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10465,7 +10686,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10484,32 +10705,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10526,7 +10747,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10537,7 +10758,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10554,7 +10775,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10565,7 +10786,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10582,7 +10803,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10593,7 +10814,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10610,7 +10831,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10621,7 +10842,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10638,7 +10859,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10648,7 +10869,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10670,7 +10891,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10692,7 +10913,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10713,7 +10934,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10738,7 +10959,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10765,7 +10986,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10786,7 +11007,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10803,7 +11024,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10815,13 +11036,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10843,7 +11064,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10863,7 +11084,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10872,7 +11093,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10892,7 +11113,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10905,7 +11126,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10925,7 +11146,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10971,7 +11192,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10980,7 +11201,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10996,7 +11217,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11006,7 +11227,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11023,7 +11244,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11033,7 +11254,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11050,7 +11271,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11060,7 +11281,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11080,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11090,7 +11311,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11107,7 +11328,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11117,7 +11338,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11143,7 +11364,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11170,7 +11391,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11197,7 +11418,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11218,7 +11439,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11239,7 +11460,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11260,7 +11481,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11281,7 +11502,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11298,7 +11519,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11316,7 +11537,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11335,7 +11556,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11354,7 +11575,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11371,7 +11592,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11384,7 +11605,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11401,7 +11622,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11414,7 +11635,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11431,7 +11652,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11458,7 +11679,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11474,14 +11695,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11498,7 +11719,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11528,7 +11749,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11539,14 +11760,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11554,30 +11775,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11594,11 +11815,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11608,7 +11829,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11629,7 +11850,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11650,7 +11871,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11671,7 +11892,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11686,7 +11907,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11717,11 +11938,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11731,7 +11952,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11752,7 +11973,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11767,7 +11988,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11789,21 +12010,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11813,23 +12034,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11850,7 +12071,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11880,7 +12101,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11901,7 +12122,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11931,7 +12152,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11961,7 +12182,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11992,7 +12213,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12019,12 +12240,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12054,7 +12275,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12084,7 +12305,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12114,7 +12335,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12135,7 +12356,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12166,7 +12387,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12187,72 +12408,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1019112931164969E-2</v>
+        <v>8.1568671286280647E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1019112931164955E-2</v>
+        <v>8.1568671286280633E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1019112931164955E-2</v>
+        <v>8.1568671286280633E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13247713112439977</v>
+        <v>0.13248093636603109</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.86015220464624498</v>
+        <v>0.86017691145375663</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13247713112439977</v>
+        <v>0.13248093636603109</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.86015220464624509</v>
+        <v>0.86017691145375674</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13247713112439977</v>
+        <v>0.13248093636603109</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.86015220464624509</v>
+        <v>0.86017691145375674</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9688768606224638E-2</v>
+        <v>7.0163487738419628E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9688768606224638E-2</v>
+        <v>7.0163487738419628E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9688768606224638E-2</v>
+        <v>7.0163487738419628E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12269,29 +12490,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12308,24 +12529,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.683506382536688</v>
+        <v>26.750632553053219</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.683506382536688</v>
+        <v>26.750632553053219</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12336,18 +12557,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.774015185301476</v>
+        <v>21.822373738343405</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.774015185301476</v>
+        <v>21.822373738343405</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12366,51 +12587,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10893898.721485129</v>
+        <v>10921303.879288781</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.266418589580672</v>
+        <v>13.299792159891156</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.266418589580672</v>
+        <v>13.299792159891156</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.643874124895685</v>
+        <v>17.688259809674168</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12428,7 +12649,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12449,31 +12670,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10893898.721485129</v>
+        <v>10921303.879288781</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.276455801143571</v>
+        <v>11.304823335907482</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.266418589580672</v>
+        <v>13.299792159891156</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.266418589580672</v>
+        <v>13.299792159891156</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.266418589580672</v>
+        <v>13.299792159891156</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.643874124895685</v>
+        <v>17.688259809674168</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12483,58 +12704,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8889533.2115720082</v>
+        <v>8909276.2382793631</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.2017037165390398</v>
+        <v>9.2221400519354049</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.825533784163577</v>
+        <v>10.849576531688712</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.825533784163577</v>
+        <v>10.849576531688712</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.825533784163577</v>
+        <v>10.849576531688712</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.397582447202511</v>
+        <v>14.42955846304173</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12544,58 +12765,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9891715.9665285684</v>
+        <v>9915290.0587840714</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.239079758841307</v>
+        <v>10.263481693921443</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.045976186872124</v>
+        <v>12.074684345789933</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.045976186872124</v>
+        <v>12.074684345789933</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.045976186872124</v>
+        <v>12.074684345789933</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.020728286049099</v>
+        <v>16.058909136357947</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12604,7 +12825,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12613,6 +12834,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82865E09-41B9-4F1A-97C9-5A942F383F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8448CD3D-6A80-4C90-B09A-7641E6BFC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.75431095413462357</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13135421474946254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2979774463912414E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3176187869769956E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11297327149257705</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>821163500</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3933,7 +3096,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>943</v>
@@ -4053,7 +3216,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4149,7 +3312,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4181,15 +3344,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13248093636603109</v>
+        <v>0.13247787048875898</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11190137343538549</v>
+        <v>0.11189878381089349</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -4203,15 +3366,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0163487738419628E-2</v>
+        <v>6.9877883310719133E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9264305177111717E-2</v>
+        <v>5.9023066485753055E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4252,13 +3415,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4317,7 +3480,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4328,7 +3491,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4429,7 +3592,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4440,7 +3603,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4600,7 +3763,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4618,7 +3781,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4626,10 +3789,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4639,16 +3802,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4657,10 +3820,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4709,7 +3872,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4730,7 +3893,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4748,7 +3911,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4787,7 +3950,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4805,20 +3968,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13248093636603109</v>
+        <v>0.13247787048875898</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13248093636603109</v>
+        <v>0.13247787048875898</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13248093636603109</v>
+        <v>0.13247787048875898</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4891,8 +4054,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4933,62 +4096,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.68</v>
+        <v>14.74</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>12054.680179999999</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>12103.949989999999</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5011,16 +4174,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5035,7 +4198,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747035026550293</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5045,40 +4208,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5091,29 +4254,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5123,12 +4286,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5136,9 +4299,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5146,59 +4309,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.75431095413462357</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.13135421474946254</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>7.2979774463912414E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.11360503337127477</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5207,50 +4370,50 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.259608796253545</v>
+        <v>12.309431317381824</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.86017691145375674</v>
+        <v>0.86015700521731886</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.11297327149257705</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0163487738419628E-2</v>
+        <v>6.9877883310719133E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5260,62 +4423,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.304823335907482</v>
+        <v>11.287841050496121</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.341498781125292</v>
+        <v>20.310941458137439</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.299792159891156</v>
-      </c>
-      <c r="G29" s="278">
+        <v>13.279813000583673</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.688259809674168</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>17.661688224467341</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5325,7 +4488,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5336,14 +4499,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5353,7 +4516,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5363,14 +4526,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5380,7 +4543,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5395,14 +4558,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6346,7 +5509,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6360,7 +5522,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6387,16 +5549,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6414,7 +5576,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6447,7 +5609,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6814,7 +5976,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6865,7 +6027,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6916,7 +6078,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6967,7 +6129,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7069,7 +6231,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7222,7 +6384,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7732,7 +6894,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8242,7 +7404,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8293,7 +7455,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8362,7 +7524,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8566,7 +7728,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8668,7 +7830,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8686,14 +7848,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8737,7 +7899,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8788,7 +7950,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8839,7 +8001,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8890,7 +8052,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8907,7 +8069,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9107,7 +8269,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9157,7 +8319,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9207,7 +8369,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10711,7 +9873,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10869,7 +10031,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11281,7 +10443,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11749,7 +10911,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11763,11 +10925,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11778,11 +10940,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11794,11 +10956,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11815,7 +10977,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11892,7 +11054,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11938,7 +11100,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11973,7 +11135,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12012,19 +11174,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12034,18 +11196,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12122,7 +11284,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12152,7 +11314,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12182,7 +11344,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12245,7 +11407,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12275,7 +11437,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12356,7 +11518,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12387,7 +11549,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12408,72 +11570,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1568671286280647E-2</v>
+        <v>8.1238521440704287E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1568671286280633E-2</v>
+        <v>8.1238521440704273E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1568671286280633E-2</v>
+        <v>8.1238521440704273E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13248093636603109</v>
+        <v>0.13247787048875898</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.86017691145375663</v>
+        <v>0.86015700521731875</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13248093636603109</v>
+        <v>0.13247787048875898</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.86017691145375674</v>
+        <v>0.86015700521731886</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13248093636603109</v>
+        <v>0.13247787048875898</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.86017691145375674</v>
+        <v>0.86015700521731886</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0163487738419628E-2</v>
+        <v>6.9877883310719133E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0163487738419628E-2</v>
+        <v>6.9877883310719133E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0163487738419628E-2</v>
+        <v>6.9877883310719133E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12495,24 +11657,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12529,24 +11691,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.750632553053219</v>
+        <v>26.710447327379903</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.750632553053219</v>
+        <v>26.710447327379903</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12557,18 +11719,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.822373738343405</v>
+        <v>21.793269583528197</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.822373738343405</v>
+        <v>21.793269583528197</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12587,14 +11749,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12611,21 +11773,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10921303.879288781</v>
+        <v>10904897.72290479</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.299792159891156</v>
+        <v>13.279813000583673</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.299792159891156</v>
+        <v>13.279813000583673</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.688259809674168</v>
+        <v>17.661688224467341</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12674,27 +11836,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10921303.879288781</v>
+        <v>10904897.72290479</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.304823335907482</v>
+        <v>11.287841050496121</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.299792159891156</v>
+        <v>13.279813000583673</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.299792159891156</v>
+        <v>13.279813000583673</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.299792159891156</v>
+        <v>13.279813000583673</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.688259809674168</v>
+        <v>17.661688224467341</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12704,21 +11866,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12731,31 +11893,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8909276.2382793631</v>
+        <v>8897394.0774274133</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.2221400519354049</v>
+        <v>9.2098406295619597</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.849576531688712</v>
+        <v>10.83510662301407</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.849576531688712</v>
+        <v>10.83510662301407</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.849576531688712</v>
+        <v>10.83510662301407</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.42955846304173</v>
+        <v>14.410313989069333</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12765,21 +11927,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12792,31 +11954,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9915290.0587840714</v>
+        <v>9901145.9001661036</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.263481693921443</v>
+        <v>10.24884084002904</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.074684345789933</v>
+        <v>12.057459811798871</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.074684345789933</v>
+        <v>12.057459811798871</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.074684345789933</v>
+        <v>12.057459811798871</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.058909136357947</v>
+        <v>16.036001106768339</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12825,7 +11987,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8448CD3D-6A80-4C90-B09A-7641E6BFC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46CFFA6D-8DF5-4975-B677-D844B5F350CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>821163500</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3096,7 +3116,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>943</v>
@@ -3182,9 +3202,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3200,7 +3220,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3216,7 +3236,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3231,10 +3251,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3246,9 +3267,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3295,10 +3316,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3312,9 +3334,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3328,7 +3350,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3344,15 +3366,15 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13247787048875898</v>
+        <v>0.13248752631575073</v>
       </c>
       <c r="D44" s="250">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11189878381089349</v>
+        <v>0.11190693970359528</v>
       </c>
       <c r="E44" s="250"/>
       <c r="F44" s="250"/>
@@ -3366,15 +3388,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9877883310719133E-2</v>
+        <v>7.0068027210884357E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9023066485753055E-2</v>
+        <v>5.9183673469387757E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3415,13 +3437,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3439,7 +3461,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3449,7 +3471,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3480,7 +3502,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3491,7 +3513,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3525,7 +3547,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3592,7 +3614,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3603,7 +3625,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3650,7 +3672,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3763,7 +3785,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3781,7 +3803,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3789,10 +3811,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3800,7 +3822,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3808,10 +3830,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3833,7 +3855,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3872,7 +3894,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3893,7 +3915,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3911,7 +3933,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3950,7 +3972,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3968,20 +3990,20 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
-        <v>0.13247787048875898</v>
+        <v>0.13248752631575073</v>
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
         <f>F98</f>
-        <v>0.13247787048875898</v>
+        <v>0.13248752631575073</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
-        <v>0.13247787048875898</v>
+        <v>0.13248752631575073</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -3991,28 +4013,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4054,8 +4081,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4096,7 +4123,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4108,15 +4135,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.74</v>
+        <v>14.7</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4136,7 +4163,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4149,7 +4176,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>12103.949989999999</v>
+        <v>12071.103450000001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4183,7 +4210,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4198,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7748834292093916</v>
+        <v>7.7743167877197266</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4208,40 +4235,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4254,29 +4281,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4286,12 +4313,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4301,7 +4328,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4309,21 +4336,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4331,10 +4358,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4342,78 +4369,78 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.11360503337127477</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.309431317381824</v>
+        <v>12.27692191651793</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.86015700521731886</v>
+        <v>0.86021969891248073</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9877883310719133E-2</v>
+        <v>7.0068027210884357E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4423,40 +4450,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.287841050496121</v>
+        <v>11.298251025733046</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>20.310941458137439</v>
+        <v>20.32967279893786</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.279813000583673</v>
+        <v>13.292060030274172</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.661688224467341</v>
+        <v>17.67797634690249</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4464,21 +4491,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4488,25 +4515,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4516,7 +4543,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4526,14 +4553,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4543,7 +4570,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4558,14 +4585,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5465,27 +5492,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5517,12 +5544,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5549,16 +5576,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5576,7 +5603,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5609,7 +5636,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5620,7 +5647,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5976,7 +6003,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6027,7 +6054,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6078,7 +6105,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6129,7 +6156,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6231,7 +6258,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6384,7 +6411,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6639,7 +6666,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6690,7 +6717,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6744,15 +6771,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6792,50 +6819,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6843,50 +6870,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6894,101 +6921,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6996,101 +7023,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7098,50 +7125,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7149,50 +7176,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7200,50 +7227,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7251,272 +7278,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.75431095413462357</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.78407330029783462</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.13135421474946254</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.12381689397223768</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.75431095413462357</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.78407330029783462</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7524,50 +7551,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.13135421474946254</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>6.3176187869769956E-4</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.12381689397223768</v>
+        <f t="shared" si="37"/>
+        <v>5.7886729651189528E-4</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7575,50 +7602,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>7.2979774463912414E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>6.9169736278116298E-4</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7626,50 +7653,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>6.3176187869769956E-4</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.7886729651189528E-4</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7677,221 +7704,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>7.2979774463912414E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.11297327149257708</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>6.9169736278116298E-4</v>
+        <f t="shared" si="40"/>
+        <v>9.0839241070634694E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.11297327149257708</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.0839241070634694E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7899,522 +7926,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.5921358242618444E-3</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>6.3724365119010654E-3</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.5921358242618444E-3</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>6.3724365119010654E-3</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8974,12 +8905,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9661,27 +9588,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9873,7 +9803,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9920,7 +9850,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9948,7 +9878,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10031,7 +9961,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10053,7 +9983,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10121,7 +10051,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10443,7 +10373,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10580,7 +10510,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10911,7 +10841,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10977,7 +10907,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11012,7 +10942,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11033,7 +10963,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11054,7 +10984,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11069,7 +10999,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11100,7 +11030,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11114,7 +11044,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11135,7 +11065,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11150,7 +11080,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11172,7 +11102,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11180,11 +11110,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11212,7 +11142,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11284,7 +11214,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11314,7 +11244,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11344,7 +11274,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11402,12 +11332,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11437,7 +11367,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11467,7 +11397,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11518,7 +11448,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11549,7 +11479,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11570,72 +11500,72 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1238521440704287E-2</v>
+        <v>8.1453641784147421E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1238521440704273E-2</v>
+        <v>8.1453641784147407E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1238521440704273E-2</v>
+        <v>8.1453641784147407E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
-        <v>0.13247787048875898</v>
+        <v>0.13248752631575073</v>
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.86015700521731875</v>
+        <v>0.86021969891248062</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>0.13247787048875898</v>
+        <v>0.13248752631575073</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.86015700521731886</v>
+        <v>0.86021969891248073</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
-        <v>0.13247787048875898</v>
+        <v>0.13248752631575073</v>
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.86015700521731886</v>
+        <v>0.86021969891248073</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9877883310719133E-2</v>
+        <v>7.0068027210884357E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9877883310719133E-2</v>
+        <v>7.0068027210884357E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9877883310719133E-2</v>
+        <v>7.0068027210884357E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11652,27 +11582,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11691,24 +11621,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.710447327379903</v>
+        <v>26.735080478573416</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.710447327379903</v>
+        <v>26.735080478573416</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11719,18 +11649,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.793269583528197</v>
+        <v>21.812642497649335</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.793269583528197</v>
+        <v>21.812642497649335</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11749,14 +11679,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11769,31 +11699,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10904897.72290479</v>
+        <v>10914954.536670044</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.279813000583673</v>
+        <v>13.292060030274172</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.279813000583673</v>
+        <v>13.292060030274172</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.661688224467341</v>
+        <v>17.67797634690249</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11811,7 +11741,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11836,27 +11766,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10904897.72290479</v>
+        <v>10914954.536670044</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.287841050496121</v>
+        <v>11.298251025733046</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.279813000583673</v>
+        <v>13.292060030274172</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.279813000583673</v>
+        <v>13.292060030274172</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.279813000583673</v>
+        <v>13.29206003027417</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.661688224467341</v>
+        <v>17.67797634690249</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11866,21 +11796,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11893,31 +11823,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8897394.0774274133</v>
+        <v>8905303.3289834168</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.2098406295619597</v>
+        <v>9.218027627428528</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.83510662301407</v>
+        <v>10.844738385210032</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.83510662301407</v>
+        <v>10.844738385210032</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.83510662301407</v>
+        <v>10.844738385210032</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.410313989069333</v>
+        <v>14.423123896930974</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11927,21 +11857,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11954,31 +11884,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9901145.9001661036</v>
+        <v>9910128.9328267314</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.24884084002904</v>
+        <v>10.258139326580787</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.057459811798871</v>
+        <v>12.068399207742102</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.057459811798871</v>
+        <v>12.068399207742102</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.057459811798871</v>
+        <v>12.0683992077421</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.036001106768339</v>
+        <v>16.050550121916732</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11987,7 +11917,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46CFFA6D-8DF5-4975-B677-D844B5F350CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4642295C-B6C7-46EC-9BDF-2C9E725F50F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>821163500</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>272</v>
+      <c r="C19" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>272</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,409 +3048,413 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>1492651</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>1630771</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>1125923</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>1278644</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>44044+152022</f>
         <v>196066</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>44743+157174</f>
         <v>201917</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>943</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>944</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>817</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>846</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13248752631575073</v>
-      </c>
-      <c r="D44" s="250">
+        <v>0.13249161658549286</v>
+      </c>
+      <c r="D44" s="247">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11190693970359528</v>
-      </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+        <v>0.11191039459162988</v>
+      </c>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0068027210884357E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>7.0644718792866948E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9183673469387757E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>5.9670781893004114E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3513,7 +3525,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3541,7 +3553,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3553,7 +3565,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3572,8 +3584,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3625,7 +3637,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3641,7 +3653,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3653,7 +3665,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3666,7 +3678,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3714,14 +3726,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3745,7 +3757,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3775,19 +3787,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3803,20 +3815,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3846,10 +3858,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3861,12 +3873,12 @@
         <f>C25</f>
         <v>1492651</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>1492651</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>1492651</v>
       </c>
@@ -3879,75 +3891,75 @@
         <f>C26</f>
         <v>1125923</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>1125923</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>1125923</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>196066</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>196066.00000000003</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>943</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>943</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3960,12 +3972,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3978,12 +3990,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>1089.3333333333333</v>
       </c>
@@ -3992,18 +4004,18 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
-        <v>0.13248752631575073</v>
-      </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+        <v>0.13249161658549286</v>
+      </c>
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
-        <v>0.13248752631575073</v>
-      </c>
-      <c r="F98" s="254">
+        <v>0.13249161658549286</v>
+      </c>
+      <c r="F98" s="251">
         <f>C98</f>
-        <v>0.13248752631575073</v>
+        <v>0.13249161658549286</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4082,7 +4094,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4134,11 +4146,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>14.7</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>14.58</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4176,7 +4188,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>12071.103450000001</v>
+        <v>11972.563829999999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4186,11 +4198,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4212,11 +4224,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4224,8 +4236,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>7.7743167877197266</v>
+      <c r="G7" s="132">
+        <v>7.7740767796834307</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4234,10 +4246,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4245,7 +4257,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4253,13 +4265,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4268,12 +4280,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4283,7 +4295,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4294,7 +4306,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4302,13 +4314,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4318,49 +4330,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4368,79 +4380,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.27692191651793</v>
+        <v>12.17707807547329</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
-        <v>0.86021969891248073</v>
+        <v>0.86024625636059593</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0068027210884357E-2</v>
+        <v>7.0644718792866948E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4457,10 +4469,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4468,22 +4480,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.298251025733046</v>
-      </c>
-      <c r="D29" s="129">
+        <v>11.332831135450052</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>20.32967279893786</v>
+        <v>20.391895023802302</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.292060030274172</v>
+        <v>13.332742512294178</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.67797634690249</v>
+        <v>17.732082629393307</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4491,23 +4503,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4515,9 +4527,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4525,17 +4537,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4543,26 +4555,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4570,9 +4582,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4585,16 +4597,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5546,10 +5558,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5575,16 +5587,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5598,11 +5610,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5627,7 +5639,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5635,7 +5647,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5699,47 +5711,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1492651</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1630771</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5801,47 +5813,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1125923</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1278644</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5852,47 +5864,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>366728</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>352127</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5903,47 +5915,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>196066</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>201917</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5954,47 +5966,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6003,49 +6015,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1128</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6053,50 +6065,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>9.1418108367146589E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6104,50 +6116,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>169572.66666666666</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>149082</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6155,50 +6167,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.13744561158735902</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6209,47 +6221,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6258,49 +6270,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>943</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>944</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6311,47 +6323,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6362,47 +6374,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6411,49 +6423,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6464,47 +6476,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6515,47 +6527,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>168629.66666666666</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>148138</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6566,47 +6578,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.4729953619432807E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>6.812943080297601E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6617,7 +6629,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>126472.25</v>
       </c>
@@ -6665,50 +6677,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13832822548344562</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6825,43 +6837,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6876,43 +6888,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6921,49 +6933,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6978,43 +6990,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7029,43 +7041,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7131,43 +7143,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7182,43 +7194,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7233,43 +7245,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7331,47 +7343,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7380,7 +7392,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7400,47 +7412,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.78407330029783462</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7449,49 +7461,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.12381689397223768</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7502,47 +7514,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7553,47 +7565,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>5.7886729651189528E-4</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7604,47 +7616,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>6.9169736278116298E-4</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7653,49 +7665,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7706,47 +7718,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.11297327149257708</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>9.0839241070634694E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7755,9 +7767,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7772,50 +7786,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7824,49 +7838,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7875,49 +7889,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7926,49 +7940,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7977,7 +7991,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7994,49 +8008,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8046,47 +8060,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8096,47 +8110,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.5921358242618444E-3</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>6.3724365119010654E-3</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8146,47 +8160,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8194,149 +8208,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9632,8 +9646,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9669,8 +9683,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9682,8 +9696,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9693,8 +9707,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9781,11 +9795,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9828,7 +9842,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9856,7 +9870,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9884,7 +9898,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9912,7 +9926,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9925,7 +9939,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9940,7 +9954,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9967,7 +9981,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9989,7 +10003,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10011,7 +10025,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10032,7 +10046,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10040,7 +10054,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10057,7 +10071,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10065,7 +10079,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10084,7 +10098,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10105,7 +10119,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10270,7 +10284,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10299,7 +10313,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10325,7 +10339,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10352,7 +10366,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10379,7 +10393,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10395,7 +10409,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10409,7 +10423,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10436,7 +10450,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10444,7 +10458,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10462,7 +10476,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10470,7 +10484,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10489,7 +10503,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10497,7 +10511,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10516,7 +10530,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10537,7 +10551,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10558,7 +10572,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10579,7 +10593,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10600,7 +10614,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10746,8 +10760,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10773,8 +10787,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10844,7 +10858,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10944,7 +10958,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10952,7 +10966,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10983,11 +10997,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11064,12 +11078,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11148,17 +11162,17 @@
         <f>Data!C6</f>
         <v>1492651</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>1492651</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>1492651</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11169,23 +11183,23 @@
         <f>Data!C8</f>
         <v>1125923</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>1125923</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>1125923</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.75431095413462357</v>
       </c>
@@ -11195,48 +11209,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>366728</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>366728</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>366728</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>196066</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.13135421474946254</v>
       </c>
@@ -11250,54 +11264,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>7.2979774463912414E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>169572.66666666666</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>169572.66666666663</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.11360503337127476</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>169572.66666666663</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.11360503337127476</v>
       </c>
@@ -11311,55 +11325,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>943</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>943</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>943</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>6.3176187869769956E-4</v>
       </c>
@@ -11367,29 +11381,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11399,27 +11413,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>168629.66666666666</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.11297327149257708</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>168629.66666666663</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.11297327149257705</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>168629.66666666663</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.11297327149257705</v>
       </c>
@@ -11429,49 +11443,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>126472.25</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>8.4729953619432807E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>126472.24999999997</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>8.4729953619432793E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>126472.24999999997</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>8.4729953619432793E-2</v>
       </c>
@@ -11481,93 +11495,93 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.15401591765829825</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.15401591765829822</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.15401591765829822</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1453641784147421E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>8.2121506801715469E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1453641784147407E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.2121506801715455E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1453641784147407E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>8.2121506801715455E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
-        <v>0.13248752631575073</v>
-      </c>
-      <c r="D88" s="166">
+        <v>0.13249161658549286</v>
+      </c>
+      <c r="D88" s="165">
         <f>C88/C86</f>
-        <v>0.86021969891248062</v>
-      </c>
-      <c r="E88" s="170">
+        <v>0.86024625636059582</v>
+      </c>
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
-        <v>0.13248752631575073</v>
-      </c>
-      <c r="F88" s="166">
+        <v>0.13249161658549286</v>
+      </c>
+      <c r="F88" s="165">
         <f>E88/E86</f>
-        <v>0.86021969891248073</v>
-      </c>
-      <c r="H88" s="170">
+        <v>0.86024625636059593</v>
+      </c>
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
-        <v>0.13248752631575073</v>
-      </c>
-      <c r="I88" s="166">
+        <v>0.13249161658549286</v>
+      </c>
+      <c r="I88" s="165">
         <f>H88/H86</f>
-        <v>0.86021969891248073</v>
+        <v>0.86024625636059593</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0068027210884357E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>7.0644718792866948E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0068027210884357E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>7.0644718792866948E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0068027210884357E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>7.0644718792866948E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11589,7 +11603,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11612,27 +11626,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.735080478573416</v>
+        <v>26.816907481189691</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.735080478573416</v>
+        <v>26.816907481189691</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11640,27 +11654,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.812642497649335</v>
+        <v>21.87148330437892</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.812642497649335</v>
+        <v>21.87148330437892</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11674,25 +11688,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11703,21 +11717,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10914954.536670044</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>10948361.505994279</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.292060030274172</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>13.332742512294177</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.292060030274172</v>
-      </c>
-      <c r="I97" s="123">
+        <v>13.332742512294177</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.67797634690249</v>
+        <v>17.732082629393307</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11729,14 +11743,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11747,17 +11761,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11766,27 +11780,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10914954.536670044</v>
+        <v>10948361.505994279</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.298251025733046</v>
+        <v>11.332831135450052</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.292060030274172</v>
+        <v>13.332742512294177</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.292060030274172</v>
+        <v>13.332742512294178</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.29206003027417</v>
+        <v>13.332742512294178</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.67797634690249</v>
+        <v>17.732082629393307</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11798,25 +11812,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11827,27 +11841,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8905303.3289834168</v>
+        <v>8929325.8760959692</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.218027627428528</v>
-      </c>
-      <c r="E103" s="123">
+        <v>9.2428937655918393</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.844738385210032</v>
+        <v>10.873992665402165</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.844738385210032</v>
-      </c>
-      <c r="H103" s="123">
+        <v>10.873992665402165</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.844738385210032</v>
+        <v>10.873992665402165</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.423123896930974</v>
+        <v>14.462031069491456</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11859,25 +11873,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11888,27 +11902,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9910128.9328267314</v>
+        <v>9938843.6910451241</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.258139326580787</v>
-      </c>
-      <c r="E106" s="123">
+        <v>10.287862450520946</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>12.068399207742102</v>
+        <v>12.103367588848171</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.068399207742102</v>
-      </c>
-      <c r="H106" s="123">
+        <v>12.103367588848172</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>12.0683992077421</v>
-      </c>
-      <c r="I106" s="123">
+        <v>12.103367588848172</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>16.050550121916732</v>
+        <v>16.097056849442382</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11919,14 +11933,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4642295C-B6C7-46EC-9BDF-2C9E725F50F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7D71B-7FD2-498C-90D4-D6DBDC020118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3263,9 +3263,13 @@
         <v>262</v>
       </c>
       <c r="C37" s="149">
-        <v>0</v>
-      </c>
-      <c r="D37" s="149"/>
+        <f>272575+29032</f>
+        <v>301607</v>
+      </c>
+      <c r="D37" s="149">
+        <f>219869+22265</f>
+        <v>242134</v>
+      </c>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
       <c r="G37" s="149"/>
@@ -3329,9 +3333,11 @@
         <v>132</v>
       </c>
       <c r="C41" s="149">
-        <v>0</v>
-      </c>
-      <c r="D41" s="149"/>
+        <v>1103502</v>
+      </c>
+      <c r="D41" s="149">
+        <v>1015949</v>
+      </c>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
       <c r="G41" s="149"/>
@@ -3347,9 +3353,11 @@
         <v>133</v>
       </c>
       <c r="C42" s="149">
-        <v>0</v>
-      </c>
-      <c r="D42" s="149"/>
+        <v>15807</v>
+      </c>
+      <c r="D42" s="149">
+        <v>17088</v>
+      </c>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
       <c r="G42" s="149"/>
@@ -3382,11 +3390,11 @@
       </c>
       <c r="C44" s="247">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13249161658549286</v>
+        <v>0.13249281120861187</v>
       </c>
       <c r="D44" s="247">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11191039459162988</v>
+        <v>0.11191140364222556</v>
       </c>
       <c r="E44" s="247"/>
       <c r="F44" s="247"/>
@@ -3404,11 +3412,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0644718792866948E-2</v>
+        <v>7.074175824175824E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9670781893004114E-2</v>
+        <v>5.9752747252747249E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4006,16 +4014,16 @@
       </c>
       <c r="C98" s="234">
         <f>C44</f>
-        <v>0.13249161658549286</v>
+        <v>0.13249281120861187</v>
       </c>
       <c r="D98" s="263"/>
       <c r="E98" s="251">
         <f>F98</f>
-        <v>0.13249161658549286</v>
+        <v>0.13249281120861187</v>
       </c>
       <c r="F98" s="251">
         <f>C98</f>
-        <v>0.13249161658549286</v>
+        <v>0.13249281120861187</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4093,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4147,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>14.58</v>
+        <v>14.56</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4188,7 +4196,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>11972.563829999999</v>
+        <v>11956.14056</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4237,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>7.7740767796834307</v>
+        <v>7.7740066846211748</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4357,9 +4365,9 @@
       <c r="B20" s="272" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="273" t="e">
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.15590093423861159</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
@@ -4372,9 +4380,9 @@
       <c r="B21" s="274" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="275" t="e">
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.77410008760886162</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
@@ -4383,9 +4391,9 @@
       <c r="B22" s="276" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="277" t="e">
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
+        <v>1.0623026398663733</v>
       </c>
       <c r="F22" s="141" t="s">
         <v>171</v>
@@ -4402,9 +4410,9 @@
       <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="176" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.3937118022121973</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4420,7 +4428,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.17707807547329</v>
+        <v>12.160483909828161</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4436,7 +4444,7 @@
       </c>
       <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
-        <v>0.86024625636059593</v>
+        <v>0.86025401285185465</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4452,7 +4460,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0644718792866948E-2</v>
+        <v>7.074175824175824E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4482,20 +4490,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.332831135450052</v>
+        <v>11.161319437238735</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>20.391895023802302</v>
+        <v>20.162424322599691</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.332742512294178</v>
+        <v>13.130964043810277</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.732082629393307</v>
+        <v>17.532542889217122</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -6784,11 +6792,11 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="65" t="str">
+        <v>1405109</v>
+      </c>
+      <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
-        <v/>
+        <v>1258083</v>
       </c>
       <c r="E27" s="65" t="str">
         <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
@@ -6937,11 +6945,11 @@
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="198" t="str">
+        <v>301607</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v/>
+        <v>242134</v>
       </c>
       <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
@@ -7141,11 +7149,11 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="198" t="str">
+        <v>1103502</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
+        <v>1015949</v>
       </c>
       <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
@@ -7192,11 +7200,11 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="198" t="str">
+        <v>15807</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
+        <v>17088</v>
       </c>
       <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
@@ -7789,13 +7797,13 @@
       <c r="B48" s="268" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="269" t="e">
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="269" t="e">
+        <v>1.0623026398663733</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v>1.2962348271139503</v>
       </c>
       <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
@@ -8010,13 +8018,13 @@
       <c r="B53" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="C53" s="155" t="e">
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="155" t="str">
+        <v>0.77410008760886162</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.7939547708696485</v>
       </c>
       <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8260,13 +8268,13 @@
       <c r="B58" s="268" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="271" t="e">
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="271" t="e">
+        <v>0.15590093423861162</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
+        <v>0.14925199802575134</v>
       </c>
       <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
@@ -8310,13 +8318,13 @@
       <c r="B59" s="268" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="271" t="e">
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="271" t="e">
+        <v>0.15503396325869537</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
+        <v>0.1483069215836838</v>
       </c>
       <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
@@ -9685,11 +9693,11 @@
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>1103502</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
@@ -9698,7 +9706,7 @@
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>1087695</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -9709,7 +9717,7 @@
       <c r="C4" s="87"/>
       <c r="D4" s="198">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>15807</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -9741,11 +9749,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-323637.40245756821</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.2932821168041093</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10629,7 +10637,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>301607</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10730,13 +10738,13 @@
       <c r="H47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="63" t="e">
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10762,7 +10770,7 @@
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>301607</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10789,7 +10797,7 @@
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
+        <v>301607</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -10813,7 +10821,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10829,15 +10837,15 @@
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>15807</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
+        <v>1.3937118022121973</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
+        <v>22030.402457568201</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11085,7 +11093,7 @@
       <c r="D69" s="205"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>0</v>
+        <v>301607</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11098,15 +11106,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>-301607</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
+        <v>-301607</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11518,17 +11526,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2121506801715469E-2</v>
+        <v>8.223356960258757E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2121506801715455E-2</v>
+        <v>8.2233569602587556E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2121506801715455E-2</v>
+        <v>8.2233569602587556E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11539,27 +11547,27 @@
       </c>
       <c r="C88" s="168">
         <f>Inputs!C44</f>
-        <v>0.13249161658549286</v>
+        <v>0.13249281120861187</v>
       </c>
       <c r="D88" s="165">
         <f>C88/C86</f>
-        <v>0.86024625636059582</v>
+        <v>0.86025401285185443</v>
       </c>
       <c r="E88" s="169">
         <f>Inputs!E98</f>
-        <v>0.13249161658549286</v>
+        <v>0.13249281120861187</v>
       </c>
       <c r="F88" s="165">
         <f>E88/E86</f>
-        <v>0.86024625636059593</v>
+        <v>0.86025401285185465</v>
       </c>
       <c r="H88" s="169">
         <f>Inputs!F98</f>
-        <v>0.13249161658549286</v>
+        <v>0.13249281120861187</v>
       </c>
       <c r="I88" s="165">
         <f>H88/H86</f>
-        <v>0.86024625636059593</v>
+        <v>0.86025401285185465</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11569,17 +11577,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0644718792866948E-2</v>
+        <v>7.074175824175824E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0644718792866948E-2</v>
+        <v>7.074175824175824E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0644718792866948E-2</v>
+        <v>7.074175824175824E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11639,14 +11647,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.816907481189691</v>
+        <v>26.830554020967369</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.816907481189691</v>
+        <v>26.830554020967369</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11667,14 +11675,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.87148330437892</v>
+        <v>21.881396870555239</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.87148330437892</v>
+        <v>21.881396870555239</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11717,21 +11725,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10948361.505994279</v>
+        <v>10953932.888559431</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.332742512294177</v>
+        <v>13.339527254388962</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.332742512294177</v>
+        <v>13.339527254388962</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.732082629393307</v>
+        <v>17.741106099795807</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11741,14 +11749,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>0</v>
+        <v>-171264.49597002997</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-0.20856321057868499</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11780,27 +11788,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10948361.505994279</v>
+        <v>10782668.392589401</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.332831135450052</v>
+        <v>11.161319437238735</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.332742512294177</v>
+        <v>13.130964043810277</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.332742512294178</v>
+        <v>13.130964043810277</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.332742512294178</v>
+        <v>13.130964043810279</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.732082629393307</v>
+        <v>17.532542889217122</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11841,27 +11849,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8929325.8760959692</v>
+        <v>8933373.2222110312</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.2428937655918393</v>
+        <v>9.2470832408885393</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.873992665402165</v>
+        <v>10.87892145986887</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.873992665402165</v>
+        <v>10.87892145986887</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.873992665402165</v>
+        <v>10.87892145986887</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.462031069491456</v>
+        <v>14.468586194265399</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11902,27 +11910,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9938843.6910451241</v>
+        <v>9858020.8074002154</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.287862450520946</v>
+        <v>10.204201339063637</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>12.103367588848171</v>
+        <v>12.004942751839573</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.103367588848172</v>
+        <v>12.004942751839573</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>12.103367588848172</v>
+        <v>12.004942751839575</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>16.097056849442382</v>
+        <v>16.000564541741262</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7D71B-7FD2-498C-90D4-D6DBDC020118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A550E1BE-6119-483A-B535-2CE8E8D9C44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>821163500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>821163500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>274</v>
-      </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>274</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,815 +3039,816 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>1492651</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>1630771</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>1125923</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>1278644</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>44044+152022</f>
         <v>196066</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>44743+157174</f>
         <v>201917</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>943</v>
+      </c>
+      <c r="D29" s="148">
+        <v>944</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>817</v>
+      </c>
+      <c r="D30" s="148">
+        <v>846</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>943</v>
-      </c>
-      <c r="D29" s="149">
-        <v>944</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>817</v>
-      </c>
-      <c r="D30" s="149">
-        <v>846</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148">
         <f>272575+29032</f>
         <v>301607</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <f>219869+22265</f>
         <v>242134</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>1103502</v>
+      </c>
+      <c r="D41" s="148">
+        <v>1015949</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>1103502</v>
-      </c>
-      <c r="D41" s="149">
-        <v>1015949</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>15807</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>17088</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13249281120861187</v>
-      </c>
-      <c r="D44" s="247">
+        <v>0.13250985521904043</v>
+      </c>
+      <c r="D44" s="245">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11191140364222556</v>
-      </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+        <v>0.11192580003938367</v>
+      </c>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.074175824175824E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9752747252747249E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>6.0669456066945605E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3862,168 +3857,168 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>1492651</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>1492651</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>1492651</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>1125923</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>1125923</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>1125923</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>196066</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>196066.00000000003</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>943</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>943</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>1089.3333333333333</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
-        <v>0.13249281120861187</v>
-      </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+        <v>0.13250985521904043</v>
+      </c>
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
-        <v>0.13249281120861187</v>
-      </c>
-      <c r="F98" s="251">
+        <v>0.13250985521904043</v>
+      </c>
+      <c r="F98" s="249">
         <f>C98</f>
-        <v>0.13249281120861187</v>
+        <v>0.13250985521904043</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4034,32 +4029,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4101,8 +4096,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4118,13 +4113,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4135,82 +4130,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1836.HK : 九興控股</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>14.56</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>14.34</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>11956.14056</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>11775.48459</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4221,31 +4216,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>7.7740066846211748</v>
+      <c r="G7" s="131">
+        <v>7.7730067571004229</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4254,280 +4249,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.15590093423861159</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.77410008760886162</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>1.0623026398663733</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3937118022121973</v>
+        <v>1.3728295495146243</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.160483909828161</v>
+        <v>11.978281034365146</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>0.86025401285185465</v>
+        <v>0.86036467680586481</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.074175824175824E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.161319437238735</v>
-      </c>
-      <c r="D29" s="128">
+        <v>11.228209570299503</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>20.162424322599691</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>20.281588241819001</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.130964043810277</v>
-      </c>
-      <c r="G29" s="286">
+        <v>13.209658317999416</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.532542889217122</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>17.636163688538264</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4535,9 +4530,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4545,17 +4540,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4563,26 +4558,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4590,9 +4585,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4605,16 +4600,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5566,10 +5561,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5595,59 +5590,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>169572.66666666666</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5655,19 +5650,19 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5716,928 +5711,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1492651</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1630771</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-8.4696134527778577E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1125923</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1278644</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>366728</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>352127</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>196066</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>201917</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1128</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>9.1418108367146589E-2</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>169572.66666666666</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>149082</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.13744561158735902</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>943</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>944</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>168629.66666666666</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>148138</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>8.4729953619432807E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>6.812943080297601E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>126472.25</v>
       </c>
@@ -6681,63 +6676,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.13832822548344562</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6783,11 +6778,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6834,266 +6829,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>301607</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>242134</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7140,169 +7135,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>1103502</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>1015949</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>15807</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>17088</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>1405109</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7344,63 +7339,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>0.12068292685241262</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7413,372 +7408,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.78407330029783462</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.12381689397223768</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>5.7886729651189528E-4</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>6.9169736278116298E-4</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.11297327149257708</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>9.0839241070634694E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7790,216 +7785,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>1.0623026398663733</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>1.2962348271139503</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8015,350 +8010,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.77410008760886162</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.7939547708696485</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.5921358242618444E-3</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>6.3724365119010654E-3</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.15590093423861162</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>0.14925199802575134</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>0.15503396325869537</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>0.1483069215836838</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9637,7 +9632,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9655,7 +9650,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9673,38 +9668,38 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>1103502</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>1087695</v>
       </c>
@@ -9712,28 +9707,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>15807</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9746,25 +9741,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in USD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-323637.40245756821</v>
+        <v>-323307.31668917765</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2932821168041093</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>1.2929829911401862</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9772,7 +9767,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9782,287 +9777,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10073,21 +10068,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10100,45 +10095,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10146,17 +10141,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10166,19 +10161,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10188,17 +10183,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10207,7 +10202,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10217,17 +10212,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10240,7 +10235,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10250,17 +10245,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10287,12 +10282,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10302,171 +10297,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10474,25 +10469,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10500,26 +10495,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10527,113 +10522,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10641,17 +10636,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10661,16 +10656,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10680,16 +10675,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10699,14 +10694,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10719,7 +10714,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10729,14 +10724,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10749,13 +10744,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10763,12 +10758,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>301607</v>
       </c>
@@ -10779,109 +10774,109 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>1405109</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>301607</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>15807</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3937118022121973</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.3728295495146243</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>22030.402457568201</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>21700.316689177667</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10889,61 +10884,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10957,35 +10952,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10999,29 +10994,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11035,9 +11030,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11045,32 +11040,32 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>1405109</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
@@ -11080,65 +11075,65 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>301607</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>-301607</v>
+        <v>1103502</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-0.27331803657809411</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
         <v>-301607</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11148,66 +11143,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>1492651</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>1492651</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>1492651</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>1125923</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>1125923</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.75431095413462357</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>1125923</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.75431095413462357</v>
       </c>
@@ -11215,50 +11210,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>366728</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>366728</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>366728</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>196066</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.13135421474946254</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>196066.00000000003</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.13135421474946254</v>
       </c>
@@ -11266,60 +11261,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>7.2979774463912414E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>1089.3333333333333</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>7.2979774463912414E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>169572.66666666666</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.11360503337127477</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>169572.66666666663</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.11360503337127476</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>169572.66666666663</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.11360503337127476</v>
       </c>
@@ -11327,61 +11322,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>943</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>943</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>943</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>6.3176187869769956E-4</v>
       </c>
@@ -11389,59 +11384,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>168629.66666666666</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.11297327149257708</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>168629.66666666663</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.11297327149257705</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>168629.66666666663</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.11297327149257705</v>
       </c>
@@ -11449,184 +11444,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>126472.25</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>8.4729953619432807E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>126472.24999999997</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>8.4729953619432793E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>126472.24999999997</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>8.4729953619432793E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.15401591765829825</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.15401591765829822</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.15401591765829822</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.223356960258757E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>8.3484432960876889E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2233569602587556E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>8.3484432960876875E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2233569602587556E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>8.3484432960876875E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
-        <v>0.13249281120861187</v>
-      </c>
-      <c r="D88" s="165">
+        <v>0.13250985521904043</v>
+      </c>
+      <c r="D88" s="163">
         <f>C88/C86</f>
-        <v>0.86025401285185443</v>
-      </c>
-      <c r="E88" s="169">
+        <v>0.86036467680586459</v>
+      </c>
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
-        <v>0.13249281120861187</v>
-      </c>
-      <c r="F88" s="165">
+        <v>0.13250985521904043</v>
+      </c>
+      <c r="F88" s="163">
         <f>E88/E86</f>
-        <v>0.86025401285185465</v>
-      </c>
-      <c r="H88" s="169">
+        <v>0.86036467680586481</v>
+      </c>
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
-        <v>0.13249281120861187</v>
-      </c>
-      <c r="I88" s="165">
+        <v>0.13250985521904043</v>
+      </c>
+      <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>0.86025401285185465</v>
+        <v>0.86036467680586481</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.074175824175824E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.074175824175824E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.074175824175824E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11634,55 +11629,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.830554020967369</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>26.98249778991908</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.830554020967369</v>
+        <v>26.98249778991908</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.881396870555239</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>21.992516320812044</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.881396870555239</v>
+        <v>21.992516320812044</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11692,123 +11687,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10953932.888559431</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>11015965.96646871</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.339527254388962</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>13.415070161385291</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.339527254388962</v>
-      </c>
-      <c r="I97" s="122">
+        <v>13.415070161385291</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.741106099795807</v>
+        <v>17.841575531924139</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-168676.70825619707</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-0.20541184338587512</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-171264.49597002997</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.20856321057868499</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10782668.392589401</v>
-      </c>
-      <c r="D100" s="109">
+        <v>10847289.258212514</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.161319437238735</v>
-      </c>
-      <c r="E100" s="109">
+        <v>11.228209570299503</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.130964043810277</v>
-      </c>
-      <c r="F100" s="109">
+        <v>13.209658317999416</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>13.130964043810277</v>
-      </c>
-      <c r="H100" s="109">
+        <v>13.209658317999416</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.130964043810279</v>
-      </c>
-      <c r="I100" s="109">
+        <v>13.209658317999418</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.532542889217122</v>
+        <v>17.636163688538264</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11818,58 +11813,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8933373.2222110312</v>
-      </c>
-      <c r="D103" s="109">
+        <v>8978739.2254540306</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.2470832408885393</v>
-      </c>
-      <c r="E103" s="122">
+        <v>9.294042345569336</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.87892145986887</v>
-      </c>
-      <c r="F103" s="109">
+        <v>10.93416746537569</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>10.87892145986887</v>
-      </c>
-      <c r="H103" s="122">
+        <v>10.93416746537569</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.87892145986887</v>
-      </c>
-      <c r="I103" s="109">
+        <v>10.93416746537569</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.468586194265399</v>
+        <v>14.542061455164461</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11879,58 +11874,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9858020.8074002154</v>
-      </c>
-      <c r="D106" s="109">
+        <v>9913014.2418332733</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>10.204201339063637</v>
-      </c>
-      <c r="E106" s="122">
+        <v>10.26112595793442</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>12.004942751839573</v>
-      </c>
-      <c r="F106" s="109">
+        <v>12.071912891687553</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>12.004942751839573</v>
-      </c>
-      <c r="H106" s="122">
+        <v>12.071912891687553</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>12.004942751839575</v>
-      </c>
-      <c r="I106" s="122">
+        <v>12.071912891687553</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>16.000564541741262</v>
+        <v>16.089112571851363</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11939,15 +11934,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A550E1BE-6119-483A-B535-2CE8E8D9C44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F128CB7E-F53F-4654-8BDA-CE0FC5F6E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,6 +2948,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3384,11 +3401,11 @@
       </c>
       <c r="C44" s="245">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13250985521904043</v>
+        <v>0.13251315290546686</v>
       </c>
       <c r="D44" s="245">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11192580003938367</v>
+        <v>0.11192858546384095</v>
       </c>
       <c r="E44" s="245"/>
       <c r="F44" s="245"/>
@@ -3406,11 +3423,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1827057182705725E-2</v>
+        <v>6.9220430107526876E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0669456066945605E-2</v>
+        <v>5.8467741935483868E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3839,11 +3856,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3857,10 +3874,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4009,16 +4026,16 @@
       </c>
       <c r="C98" s="232">
         <f>C44</f>
-        <v>0.13250985521904043</v>
+        <v>0.13251315290546686</v>
       </c>
       <c r="D98" s="261"/>
       <c r="E98" s="249">
         <f>F98</f>
-        <v>0.13250985521904043</v>
+        <v>0.13251315290546686</v>
       </c>
       <c r="F98" s="249">
         <f>C98</f>
-        <v>0.13250985521904043</v>
+        <v>0.13251315290546686</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4082,8 +4099,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4096,8 +4116,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4140,60 +4160,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>14.34</v>
+        <v>14.88</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>11775.48459</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>12218.91288</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4216,11 +4236,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4240,7 +4260,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7730067571004229</v>
+        <v>7.7728133201599121</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4361,7 +4381,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.15590093423861159</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4373,20 +4393,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.77410008760886162</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.11360503337127477</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>1.0623026398663733</v>
       </c>
@@ -4395,26 +4415,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.11360503337127477</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.2918226157148833</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3728295495146243</v>
+        <v>1.4245615109992529</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>6.3176187869769956E-4</v>
       </c>
@@ -4423,7 +4443,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.978281034365146</v>
+        <v>12.429655331590116</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4439,7 +4459,7 @@
       </c>
       <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>0.86036467680586481</v>
+        <v>0.86038608814098239</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4455,7 +4475,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>6.9220430107526876E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4474,10 +4494,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4485,22 +4505,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.228209570299503</v>
+        <v>11.062715086228204</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>20.281588241819001</v>
+        <v>19.986738516073476</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.209658317999416</v>
-      </c>
-      <c r="G29" s="285">
+        <v>13.014958924974358</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.636163688538264</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>17.37977262267259</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5531,7 +5551,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7772,7 +7792,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9699,7 +9719,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>1087695</v>
       </c>
@@ -9744,11 +9764,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-323307.31668917765</v>
+        <v>-324125.04380436521</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2929829911401862</v>
+        <v>1.2937240202594695</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10746,7 +10766,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10763,7 +10783,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>301607</v>
       </c>
@@ -10836,11 +10856,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3728295495146243</v>
+        <v>1.4245615109992531</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>21700.316689177667</v>
+        <v>22518.043804365192</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10872,11 +10892,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10887,11 +10907,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10903,11 +10923,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11121,19 +11141,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11143,18 +11163,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11521,17 +11541,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3484432960876889E-2</v>
+        <v>8.0452753783002207E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3484432960876875E-2</v>
+        <v>8.0452753783002193E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3484432960876875E-2</v>
+        <v>8.0452753783002193E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11542,27 +11562,27 @@
       </c>
       <c r="C88" s="166">
         <f>Inputs!C44</f>
-        <v>0.13250985521904043</v>
+        <v>0.13251315290546686</v>
       </c>
       <c r="D88" s="163">
         <f>C88/C86</f>
-        <v>0.86036467680586459</v>
+        <v>0.86038608814098227</v>
       </c>
       <c r="E88" s="167">
         <f>Inputs!E98</f>
-        <v>0.13250985521904043</v>
+        <v>0.13251315290546686</v>
       </c>
       <c r="F88" s="163">
         <f>E88/E86</f>
-        <v>0.86036467680586481</v>
+        <v>0.86038608814098239</v>
       </c>
       <c r="H88" s="167">
         <f>Inputs!F98</f>
-        <v>0.13250985521904043</v>
+        <v>0.13251315290546686</v>
       </c>
       <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>0.86036467680586481</v>
+        <v>0.86038608814098239</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11572,17 +11592,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>6.9220430107526876E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>6.9220430107526876E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1827057182705725E-2</v>
+        <v>6.9220430107526876E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11613,15 +11633,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11642,14 +11662,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.98249778991908</v>
+        <v>26.606445964215354</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.98249778991908</v>
+        <v>26.606445964215354</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11670,14 +11690,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.992516320812044</v>
+        <v>21.726390660229061</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.992516320812044</v>
+        <v>21.726390660229061</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11720,21 +11740,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11015965.96646871</v>
+        <v>10862437.774014696</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.415070161385291</v>
+        <v>13.228105942378949</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.415070161385291</v>
+        <v>13.228105942378949</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.841575531924139</v>
+        <v>17.592919640077181</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11744,14 +11764,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-168676.70825619707</v>
+        <v>-175028.55082651414</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.20541184338587512</v>
+        <v>-0.21314701740459011</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11783,27 +11803,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10847289.258212514</v>
+        <v>10687409.223188182</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.228209570299503</v>
+        <v>11.062715086228204</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.209658317999416</v>
+        <v>13.014958924974358</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>13.209658317999416</v>
+        <v>13.014958924974358</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.209658317999418</v>
+        <v>13.01495892497436</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.636163688538264</v>
+        <v>17.37977262267259</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11844,27 +11864,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8978739.2254540306</v>
+        <v>8870089.8616104256</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.294042345569336</v>
+        <v>9.1815775815277494</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.93416746537569</v>
+        <v>10.801855978267941</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>10.93416746537569</v>
+        <v>10.801855978267941</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.93416746537569</v>
+        <v>10.801855978267941</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.542061455164461</v>
+        <v>14.366091791005035</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11905,27 +11925,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9913014.2418332733</v>
+        <v>9778749.542399304</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>10.26112595793442</v>
+        <v>10.122146333877977</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>12.071912891687553</v>
+        <v>11.90840745162115</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>12.071912891687553</v>
+        <v>11.90840745162115</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>12.071912891687553</v>
+        <v>11.908407451621152</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>16.089112571851363</v>
+        <v>15.872932206838811</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F128CB7E-F53F-4654-8BDA-CE0FC5F6E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C7E768-9FAD-4FDA-B8A5-A42726E1D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3401,11 +3401,11 @@
       </c>
       <c r="C44" s="245">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13251315290546686</v>
+        <v>0.13254862492607267</v>
       </c>
       <c r="D44" s="245">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11192858546384095</v>
+        <v>0.11195854726765361</v>
       </c>
       <c r="E44" s="245"/>
       <c r="F44" s="245"/>
@@ -3423,11 +3423,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9220430107526876E-2</v>
+        <v>6.3975155279503107E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8467741935483868E-2</v>
+        <v>5.4037267080745334E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4026,16 +4026,16 @@
       </c>
       <c r="C98" s="232">
         <f>C44</f>
-        <v>0.13251315290546686</v>
+        <v>0.13254862492607267</v>
       </c>
       <c r="D98" s="261"/>
       <c r="E98" s="249">
         <f>F98</f>
-        <v>0.13251315290546686</v>
+        <v>0.13254862492607267</v>
       </c>
       <c r="F98" s="249">
         <f>C98</f>
-        <v>0.13251315290546686</v>
+        <v>0.13254862492607267</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>14.88</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>12218.91288</v>
+        <v>13220.732350000002</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4260,7 +4260,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7728133201599121</v>
+        <v>7.7707331975301104</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4245615109992529</v>
+        <v>1.5417728388104026</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.429655331590116</v>
+        <v>13.452353470211506</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>0.86038608814098239</v>
+        <v>0.86061640213154345</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9220430107526876E-2</v>
+        <v>6.3975155279503107E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4505,20 +4505,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.062715086228204</v>
+        <v>8.1223054054515451</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>19.986738516073476</v>
+        <v>16.112924590052085</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.014958924974358</v>
+        <v>9.555653418178288</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.37977262267259</v>
+        <v>14.011238773958336</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9670,7 +9670,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9764,11 +9764,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-324125.04380436521</v>
+        <v>-325977.80326307606</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.2937240202594695</v>
+        <v>1.2954030017735139</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10856,11 +10856,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4245615109992531</v>
+        <v>1.5417728388104026</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>22518.043804365192</v>
+        <v>24370.803263076035</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11541,17 +11541,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0452753783002207E-2</v>
+        <v>7.4336435049403862E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0452753783002193E-2</v>
+        <v>7.4336435049403848E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0452753783002193E-2</v>
+        <v>7.4336435049403848E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11562,27 +11562,27 @@
       </c>
       <c r="C88" s="166">
         <f>Inputs!C44</f>
-        <v>0.13251315290546686</v>
+        <v>0.13254862492607267</v>
       </c>
       <c r="D88" s="163">
         <f>C88/C86</f>
-        <v>0.86038608814098227</v>
+        <v>0.86061640213154333</v>
       </c>
       <c r="E88" s="167">
         <f>Inputs!E98</f>
-        <v>0.13251315290546686</v>
+        <v>0.13254862492607267</v>
       </c>
       <c r="F88" s="163">
         <f>E88/E86</f>
-        <v>0.86038608814098239</v>
+        <v>0.86061640213154345</v>
       </c>
       <c r="H88" s="167">
         <f>Inputs!F98</f>
-        <v>0.13251315290546686</v>
+        <v>0.13254862492607267</v>
       </c>
       <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>0.86038608814098239</v>
+        <v>0.86061640213154345</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11592,17 +11592,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9220430107526876E-2</v>
+        <v>6.3975155279503107E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9220430107526876E-2</v>
+        <v>6.3975155279503107E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9220430107526876E-2</v>
+        <v>6.3975155279503107E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11662,14 +11662,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.606445964215354</v>
+        <v>25.854922865940708</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.606445964215354</v>
+        <v>25.854922865940708</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11690,14 +11690,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.726390660229061</v>
+        <v>21.198677933062569</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.726390660229061</v>
+        <v>21.198677933062569</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11740,21 +11740,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10862437.774014696</v>
+        <v>10555618.407695629</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.228105942378949</v>
+        <v>12.854466141877506</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>13.228105942378949</v>
+        <v>12.854466141877506</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.592919640077181</v>
+        <v>17.095991734208425</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11764,14 +11764,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-175028.55082651414</v>
+        <v>-189379.00996686009</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.21314701740459011</v>
+        <v>-0.23062278092835359</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11781,18 +11781,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-2343707.5275074639</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-3.2822497062199951</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-2.8541301793217353</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11803,27 +11803,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10687409.223188182</v>
+        <v>8022531.8702213056</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.062715086228204</v>
+        <v>8.1223054054515451</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.014958924974358</v>
+        <v>9.3415936547291576</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>13.014958924974358</v>
+        <v>9.555653418178288</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.01495892497436</v>
+        <v>9.7697131816274183</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.37977262267259</v>
+        <v>14.011238773958336</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11864,27 +11864,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8870089.8616104256</v>
+        <v>8654644.075686546</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.1815775815277494</v>
+        <v>8.9585660642899558</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.801855978267941</v>
+        <v>10.539489487399948</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>10.801855978267941</v>
+        <v>10.539489487399948</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.801855978267941</v>
+        <v>10.539489487399948</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.366091791005035</v>
+        <v>14.017153506854919</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11925,27 +11925,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9778749.542399304</v>
+        <v>8162809.9083908675</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>10.122146333877977</v>
+        <v>8.5404357348707514</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>11.90840745162115</v>
+        <v>9.9405415710645535</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>11.90840745162115</v>
+        <v>10.047571452789118</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>11.908407451621152</v>
+        <v>10.154601334513682</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>15.872932206838811</v>
+        <v>14.014196140406629</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E463DA6C-2C07-4631-917C-83EB8E489C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20903BC-8347-45CE-ABC7-76FD4CBC1C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="C44" s="86">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13264205101194682</v>
+        <v>0.13264546931836987</v>
       </c>
       <c r="D44" s="86">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11203746056348905</v>
+        <v>0.11204034787085609</v>
       </c>
       <c r="E44" s="86"/>
       <c r="F44" s="86"/>
@@ -3636,11 +3636,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5107458912768645E-2</v>
+        <v>6.4943253467843631E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.4993678887484194E-2</v>
+        <v>5.4854981084489281E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4240,16 +4240,16 @@
       </c>
       <c r="C98" s="109">
         <f>C44</f>
-        <v>0.13264205101194682</v>
+        <v>0.13264546931836987</v>
       </c>
       <c r="D98" s="110"/>
       <c r="E98" s="111">
         <f>F98</f>
-        <v>0.13264205101194682</v>
+        <v>0.13264546931836987</v>
       </c>
       <c r="F98" s="111">
         <f>C98</f>
-        <v>0.13264205101194682</v>
+        <v>0.13264546931836987</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.82</v>
+        <v>15.86</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>12990.806570000001</v>
+        <v>13023.653109999999</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4473,7 +4473,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7652599016825361</v>
+        <v>7.7650597890218096</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4604,7 +4604,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5160272079818626</v>
+        <v>1.5198995675916329</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.227716404684838</v>
+        <v>13.261503710391034</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.86122300232777393</v>
+        <v>0.86124519682867384</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5107458912768645E-2</v>
+        <v>6.4943253467843631E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4723,20 +4723,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.9379444704334681</v>
+        <v>8.355441523499886</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>16.615032237526489</v>
+        <v>16.202930394345891</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.691699376980552</v>
+        <v>9.8299312041175124</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.447854119588252</v>
+        <v>14.089504690735557</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -9969,11 +9969,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-325570.84207656933</v>
+        <v>-325632.05246492091</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.2950342111537354</v>
+        <v>1.2950896803675218</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11061,11 +11061,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5160272079818629</v>
+        <v>1.5198995675916329</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>23963.842076569304</v>
+        <v>24025.05246492094</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.8521198801051981</v>
+        <v>-2.8520463802732352</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.8521198801051981</v>
+        <v>-2.8520463802732352</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.8521198801051981</v>
+        <v>-2.8520463802732352</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11773,17 +11773,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5598838787156938E-2</v>
+        <v>7.5406230080564046E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5598838787156925E-2</v>
+        <v>7.5406230080564032E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5598838787156925E-2</v>
+        <v>7.5406230080564032E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11794,27 +11794,27 @@
       </c>
       <c r="C88" s="240">
         <f>Inputs!C44</f>
-        <v>0.13264205101194682</v>
+        <v>0.13264546931836987</v>
       </c>
       <c r="D88" s="241">
         <f>C88/C86</f>
-        <v>0.86122300232777382</v>
+        <v>0.86124519682867362</v>
       </c>
       <c r="E88" s="261">
         <f>Inputs!E98</f>
-        <v>0.13264205101194682</v>
+        <v>0.13264546931836987</v>
       </c>
       <c r="F88" s="241">
         <f>E88/E86</f>
-        <v>0.86122300232777393</v>
+        <v>0.86124519682867384</v>
       </c>
       <c r="H88" s="261">
         <f>Inputs!F98</f>
-        <v>0.13264205101194682</v>
+        <v>0.13264546931836987</v>
       </c>
       <c r="I88" s="241">
         <f>H88/H86</f>
-        <v>0.86122300232777393</v>
+        <v>0.86124519682867384</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -11824,17 +11824,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5107458912768645E-2</v>
+        <v>6.4943253467843631E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5107458912768645E-2</v>
+        <v>6.4943253467843631E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5107458912768645E-2</v>
+        <v>6.4943253467843631E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11887,21 +11887,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.463979562009136</v>
+        <v>25.964936799495643</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.463979562009136</v>
+        <v>25.964936799495643</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11922,14 +11922,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.785883304766553</v>
+        <v>21.295295705428355</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.785883304766553</v>
+        <v>21.295295705428355</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11972,21 +11972,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12128938.986483369</v>
+        <v>10600533.068944348</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.770431207041435</v>
+        <v>12.909162510199671</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.770431207041435</v>
+        <v>12.909162510199671</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.526585949649135</v>
+        <v>17.168735996817716</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -11996,14 +11996,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-186085.46196743639</v>
+        <v>-186555.9688244969</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.22661194995568654</v>
+        <v>-0.22718492580892466</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12014,17 +12014,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2342056.7431667647</v>
+        <v>-2341996.3877875009</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.8521198801051981</v>
+        <v>-2.8520463802732352</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-2.8521198801051981</v>
+        <v>-2.8520463802732352</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12036,23 +12036,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.9379444704334681</v>
+        <v>8.355441523499886</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.691699376980552</v>
+        <v>9.8299312041175124</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>11.691699376980552</v>
+        <v>9.8299312041175124</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>11.691699376980552</v>
+        <v>9.8299312041175124</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.447854119588252</v>
+        <v>14.089504690735557</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12091,23 +12091,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.499219731438529</v>
+        <v>8.9993967566310786</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.352023213457095</v>
+        <v>10.587525596036564</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>12.352023213457095</v>
+        <v>10.587525596036564</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>12.352023213457095</v>
+        <v>10.587525596036564</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.656904288583766</v>
+        <v>14.081039856325296</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12146,23 +12146,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>10.218582100935999</v>
+        <v>8.6774191400654814</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>12.021861295218823</v>
+        <v>10.208728400077039</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>12.021861295218823</v>
+        <v>10.208728400077039</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>12.021861295218823</v>
+        <v>10.208728400077039</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>14.552379204086009</v>
+        <v>14.085272273530427</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20903BC-8347-45CE-ABC7-76FD4CBC1C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{835D3ECF-501A-4C90-BCC0-CC5A2C32DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3614,11 +3615,11 @@
       </c>
       <c r="C44" s="86">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13264546931836987</v>
+        <v>0.13264797274905066</v>
       </c>
       <c r="D44" s="86">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11204034787085609</v>
+        <v>0.11204246241910104</v>
       </c>
       <c r="E44" s="86"/>
       <c r="F44" s="86"/>
@@ -3636,11 +3637,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4943253467843631E-2</v>
+        <v>6.4861460957178846E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.4854981084489281E-2</v>
+        <v>5.4785894206549113E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4240,16 +4241,16 @@
       </c>
       <c r="C98" s="109">
         <f>C44</f>
-        <v>0.13264546931836987</v>
+        <v>0.13264797274905066</v>
       </c>
       <c r="D98" s="110"/>
       <c r="E98" s="111">
         <f>F98</f>
-        <v>0.13264546931836987</v>
+        <v>0.13264797274905066</v>
       </c>
       <c r="F98" s="111">
         <f>C98</f>
-        <v>0.13264546931836987</v>
+        <v>0.13264797274905066</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4289,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4311,6 +4312,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4329,8 +4333,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4366,24 +4370,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.86</v>
+        <v>15.88</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4393,7 +4400,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
@@ -4422,11 +4429,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>13023.653109999999</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>13040.07638</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4449,11 +4456,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4473,7 +4480,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7650597890218096</v>
+        <v>7.7649132410685224</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4521,10 +4528,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4571,7 +4578,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4645,7 +4652,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5198995675916329</v>
+        <v>1.5218449340793108</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4661,7 +4668,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.261503710391034</v>
+        <v>13.27847751934822</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4677,7 +4684,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.86124519682867384</v>
+        <v>0.8612614511919815</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4693,7 +4700,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4943253467843631E-2</v>
+        <v>6.4861460957178846E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4712,10 +4719,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4723,22 +4730,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.355441523499886</v>
+        <v>9.3925013839213136</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>16.202930394345891</v>
+        <v>18.650232104060908</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.8299312041175124</v>
-      </c>
-      <c r="G29" s="312">
+        <v>11.050001628142722</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.089504690735557</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>16.217593133966009</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5720,15 +5727,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5756,7 +5764,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -9969,11 +9977,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-325632.05246492091</v>
+        <v>-325662.80287299166</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.2950896803675218</v>
+        <v>1.2951175465681002</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11061,11 +11069,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5198995675916329</v>
+        <v>1.5218449340793108</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>24025.05246492094</v>
+        <v>24055.802872991666</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11187,7 +11195,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.8520463802732352</v>
+        <v>-2.8519925543438718</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11241,7 +11249,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.8520463802732352</v>
+        <v>-2.8519925543438718</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11262,7 +11270,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.8520463802732352</v>
+        <v>-2.8519925543438718</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11773,17 +11781,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5406230080564046E-2</v>
+        <v>7.5309838687672506E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5406230080564032E-2</v>
+        <v>7.5309838687672492E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5406230080564032E-2</v>
+        <v>7.5309838687672492E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11794,27 +11802,27 @@
       </c>
       <c r="C88" s="240">
         <f>Inputs!C44</f>
-        <v>0.13264546931836987</v>
+        <v>0.13264797274905066</v>
       </c>
       <c r="D88" s="241">
         <f>C88/C86</f>
-        <v>0.86124519682867362</v>
+        <v>0.86126145119198139</v>
       </c>
       <c r="E88" s="261">
         <f>Inputs!E98</f>
-        <v>0.13264546931836987</v>
+        <v>0.13264797274905066</v>
       </c>
       <c r="F88" s="241">
         <f>E88/E86</f>
-        <v>0.86124519682867384</v>
+        <v>0.8612614511919815</v>
       </c>
       <c r="H88" s="261">
         <f>Inputs!F98</f>
-        <v>0.13264546931836987</v>
+        <v>0.13264797274905066</v>
       </c>
       <c r="I88" s="241">
         <f>H88/H86</f>
-        <v>0.86124519682867384</v>
+        <v>0.8612614511919815</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -11824,17 +11832,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4943253467843631E-2</v>
+        <v>6.4861460957178846E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4943253467843631E-2</v>
+        <v>6.4861460957178846E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4943253467843631E-2</v>
+        <v>6.4861460957178846E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11883,7 +11891,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11894,14 +11902,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.964936799495643</v>
+        <v>28.419402182495357</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.964936799495643</v>
+        <v>28.419402182495357</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11922,14 +11930,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.295295705428355</v>
+        <v>23.310275026911931</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>21.295295705428355</v>
+        <v>23.310275026911931</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11972,21 +11980,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10600533.068944348</v>
+        <v>11602601.422123356</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.909162510199671</v>
+        <v>14.129465596222136</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.909162510199671</v>
+        <v>14.129465596222136</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.168735996817716</v>
+        <v>19.297057102045425</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -11996,14 +12004,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-186555.9688244969</v>
+        <v>-186791.2222530272</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.22718492580892466</v>
+        <v>-0.22747141373554378</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12014,17 +12022,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2341996.3877875009</v>
+        <v>-2341952.1878989539</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.8520463802732352</v>
+        <v>-2.8519925543438718</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-2.8520463802732352</v>
+        <v>-2.8519925543438718</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12036,23 +12044,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.355441523499886</v>
+        <v>9.3925013839213136</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8299312041175124</v>
+        <v>11.050001628142722</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>9.8299312041175124</v>
+        <v>11.050001628142722</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.8299312041175124</v>
+        <v>11.050001628142722</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.089504690735557</v>
+        <v>16.217593133966009</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12091,23 +12099,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.9993967566310786</v>
+        <v>9.8509274712675303</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>10.587525596036564</v>
+        <v>11.589326436785329</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>10.587525596036564</v>
+        <v>11.589326436785329</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>10.587525596036564</v>
+        <v>11.589326436785329</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.081039856325296</v>
+        <v>15.827908883170135</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12146,23 +12154,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>8.6774191400654814</v>
+        <v>9.6217144275944229</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>10.208728400077039</v>
+        <v>11.319664032464026</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>10.208728400077039</v>
+        <v>11.319664032464026</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>10.208728400077039</v>
+        <v>11.319664032464026</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>14.085272273530427</v>
+        <v>16.022751008568072</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{835D3ECF-501A-4C90-BCC0-CC5A2C32DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6895020C-6B23-410A-AE4B-C2E329C71E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3615,11 +3615,11 @@
       </c>
       <c r="C44" s="86">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13264797274905066</v>
+        <v>0.1326453552814785</v>
       </c>
       <c r="D44" s="86">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11204246241910104</v>
+        <v>0.11204025154843329</v>
       </c>
       <c r="E44" s="86"/>
       <c r="F44" s="86"/>
@@ -4241,16 +4241,16 @@
       </c>
       <c r="C98" s="109">
         <f>C44</f>
-        <v>0.13264797274905066</v>
+        <v>0.1326453552814785</v>
       </c>
       <c r="D98" s="110"/>
       <c r="E98" s="111">
         <f>F98</f>
-        <v>0.13264797274905066</v>
+        <v>0.1326453552814785</v>
       </c>
       <c r="F98" s="111">
         <f>C98</f>
-        <v>0.13264797274905066</v>
+        <v>0.1326453552814785</v>
       </c>
     </row>
   </sheetData>
@@ -4370,21 +4370,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4400,40 +4400,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>13040.07638</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4456,11 +4456,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4480,7 +4480,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7649132410685224</v>
+        <v>7.7650664647420244</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4611,7 +4611,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5218449340793108</v>
+        <v>1.5218149043722426</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.27847751934822</v>
+        <v>13.278215502646463</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.8612614511919815</v>
+        <v>0.8612444564059103</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4719,10 +4719,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4730,22 +4730,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.3925013839213136</v>
+        <v>10.226986177690723</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>18.650232104060908</v>
+        <v>18.757842185484201</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.050001628142722</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.031748444342027</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.217593133966009</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>16.311167117812349</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5728,15 +5728,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -9977,11 +9977,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-325662.80287299166</v>
+        <v>-325662.32819341205</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.2951175465681002</v>
+        <v>1.2951171164106743</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11069,11 +11069,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5218449340793108</v>
+        <v>1.5218149043722426</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>24055.802872991666</v>
+        <v>24055.328193412039</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11109,7 +11109,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11120,11 +11120,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11136,11 +11136,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.8519925543438718</v>
+        <v>-2.8520488322136184</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.8519925543438718</v>
+        <v>-2.8520488322136184</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.8519925543438718</v>
+        <v>-2.8520488322136184</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11781,17 +11781,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5309838687672506E-2</v>
+        <v>7.531132476353404E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5309838687672492E-2</v>
+        <v>7.5311324763534027E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5309838687672492E-2</v>
+        <v>7.5311324763534027E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11802,27 +11802,27 @@
       </c>
       <c r="C88" s="240">
         <f>Inputs!C44</f>
-        <v>0.13264797274905066</v>
+        <v>0.1326453552814785</v>
       </c>
       <c r="D88" s="241">
         <f>C88/C86</f>
-        <v>0.86126145119198139</v>
+        <v>0.86124445640591019</v>
       </c>
       <c r="E88" s="261">
         <f>Inputs!E98</f>
-        <v>0.13264797274905066</v>
+        <v>0.1326453552814785</v>
       </c>
       <c r="F88" s="241">
         <f>E88/E86</f>
-        <v>0.8612614511919815</v>
+        <v>0.8612444564059103</v>
       </c>
       <c r="H88" s="261">
         <f>Inputs!F98</f>
-        <v>0.13264797274905066</v>
+        <v>0.1326453552814785</v>
       </c>
       <c r="I88" s="241">
         <f>H88/H86</f>
-        <v>0.8612614511919815</v>
+        <v>0.8612444564059103</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -11895,21 +11895,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.419402182495357</v>
+        <v>26.429703384748596</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.419402182495357</v>
+        <v>26.429703384748596</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11930,14 +11930,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.310275026911931</v>
+        <v>21.890429770985303</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>23.310275026911931</v>
+        <v>21.890429770985303</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11980,21 +11980,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11602601.422123356</v>
+        <v>12408822.287159929</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.129465596222136</v>
+        <v>15.111268690291189</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.129465596222136</v>
+        <v>15.111268690291189</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.297057102045425</v>
+        <v>19.390687363761511</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12004,14 +12004,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-186791.2222530272</v>
+        <v>-186791.22225302717</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.22747141373554378</v>
+        <v>-0.22747141373554375</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12022,17 +12022,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2341952.1878989539</v>
+        <v>-2341998.4012314477</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.8519925543438718</v>
+        <v>-2.8520488322136184</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-2.8519925543438718</v>
+        <v>-2.8520488322136184</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12044,23 +12044,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.3925013839213136</v>
+        <v>10.226986177690723</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.050001628142722</v>
+        <v>12.031748444342027</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>11.050001628142722</v>
+        <v>12.031748444342027</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>11.050001628142722</v>
+        <v>12.031748444342027</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.217593133966009</v>
+        <v>16.311167117812349</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12099,23 +12099,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.8509274712675303</v>
+        <v>10.638535628639127</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.589326436785329</v>
+        <v>12.515924268987209</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>11.589326436785329</v>
+        <v>12.515924268987209</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.589326436785329</v>
+        <v>12.515924268987209</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>15.827908883170135</v>
+        <v>16.060357309666081</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12154,23 +12154,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>9.6217144275944229</v>
+        <v>10.432760903164926</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>11.319664032464026</v>
+        <v>12.273836356664617</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>11.319664032464026</v>
+        <v>12.273836356664617</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>11.319664032464026</v>
+        <v>12.273836356664617</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>16.022751008568072</v>
+        <v>16.185762213739217</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94215A7-19E9-4249-8E47-751D007A132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C8A5D5-A93E-4D03-953E-3F8C35FBBD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3638,11 +3638,11 @@
       </c>
       <c r="C44" s="81">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.1326487140216035</v>
+        <v>0.13255641195905099</v>
       </c>
       <c r="D44" s="81">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11204308854251946</v>
+        <v>0.11196512466444111</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4861460957178846E-2</v>
+        <v>6.469849246231156E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.4785894206549113E-2</v>
+        <v>5.4648241206030151E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4264,16 +4264,16 @@
       </c>
       <c r="C98" s="104">
         <f>C44</f>
-        <v>0.1326487140216035</v>
+        <v>0.13255641195905099</v>
       </c>
       <c r="D98" s="105"/>
       <c r="E98" s="106">
         <f>F98</f>
-        <v>0.1326487140216035</v>
+        <v>0.13255641195905099</v>
       </c>
       <c r="F98" s="106">
         <f>C98</f>
-        <v>0.1326487140216035</v>
+        <v>0.13255641195905099</v>
       </c>
     </row>
   </sheetData>
@@ -4398,27 +4398,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.88</v>
+        <v>15.92</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4428,7 +4428,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
@@ -4457,11 +4457,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>13040.07638</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>13072.922920000001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4484,11 +4484,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4508,7 +4508,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7648698488871259</v>
+        <v>7.7702767054239912</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5218534385581652</v>
+        <v>1.5246251911302042</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.27855172305239</v>
+        <v>13.302735957196644</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.8612662641526424</v>
+        <v>0.86066696205480797</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4861460957178846E-2</v>
+        <v>6.469849246231156E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4747,10 +4747,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4758,22 +4758,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.333665902373692</v>
+        <v>10.333909796868259</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>18.984690506269711</v>
+        <v>18.985955065797771</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.157254002792579</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.157540937492069</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.508426527191055</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>16.509526144171975</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5756,15 +5756,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10107,11 +10107,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-325662.9373032889</v>
+        <v>-325706.75039619516</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.2951176683896257</v>
+        <v>1.2951573720719991</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11199,11 +11199,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.521853438558165</v>
+        <v>1.5246251911302042</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>24055.937303288916</v>
+        <v>24099.750396195137</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.8519766167313811</v>
+        <v>-2.853962513303153</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.8519766167313811</v>
+        <v>-2.853962513303153</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.8519766167313811</v>
+        <v>-2.853962513303153</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11911,17 +11911,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5309417838388057E-2</v>
+        <v>7.5172506108340101E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5309417838388043E-2</v>
+        <v>7.5172506108340087E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5309417838388043E-2</v>
+        <v>7.5172506108340087E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11932,27 +11932,27 @@
       </c>
       <c r="C88" s="234">
         <f>Inputs!C44</f>
-        <v>0.1326487140216035</v>
+        <v>0.13255641195905099</v>
       </c>
       <c r="D88" s="235">
         <f>C88/C86</f>
-        <v>0.86126626415264229</v>
+        <v>0.86066696205480786</v>
       </c>
       <c r="E88" s="255">
         <f>Inputs!E98</f>
-        <v>0.1326487140216035</v>
+        <v>0.13255641195905099</v>
       </c>
       <c r="F88" s="235">
         <f>E88/E86</f>
-        <v>0.8612662641526424</v>
+        <v>0.86066696205480797</v>
       </c>
       <c r="H88" s="255">
         <f>Inputs!F98</f>
-        <v>0.1326487140216035</v>
+        <v>0.13255641195905099</v>
       </c>
       <c r="I88" s="235">
         <f>H88/H86</f>
-        <v>0.8612662641526424</v>
+        <v>0.86066696205480797</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -11962,17 +11962,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4861460957178846E-2</v>
+        <v>6.469849246231156E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4861460957178846E-2</v>
+        <v>6.469849246231156E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4861460957178846E-2</v>
+        <v>6.469849246231156E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12032,14 +12032,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.64908708555857</v>
+        <v>26.654064420005614</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.64908708555857</v>
+        <v>26.654064420005614</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12060,14 +12060,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.072850019076846</v>
+        <v>22.05934083095395</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.072850019076846</v>
+        <v>22.05934083095395</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12110,21 +12110,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12511823.570088489</v>
+        <v>12514160.443027169</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.236702033259503</v>
+        <v>15.239547840384002</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>15.236702033259503</v>
+        <v>15.239547840384002</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.58787455765798</v>
+        <v>19.591533047063908</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12134,14 +12134,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-186791.22225302717</v>
+        <v>-187261.72911008768</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.22747141373554375</v>
+        <v>-0.22804438958878184</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2341939.1005132995</v>
+        <v>-2343569.8462928138</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.8519766167313811</v>
+        <v>-2.853962513303153</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-2.8519766167313811</v>
+        <v>-2.853962513303153</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12174,23 +12174,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.333665902373692</v>
+        <v>10.333909796868259</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.157254002792579</v>
+        <v>12.157540937492069</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>12.157254002792579</v>
+        <v>12.157540937492069</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.157254002792579</v>
+        <v>12.157540937492069</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.508426527191055</v>
+        <v>16.509526144171975</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12229,23 +12229,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.727190092211119</v>
+        <v>10.720624758379715</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.620223637895435</v>
+        <v>12.612499715740842</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>12.620223637895435</v>
+        <v>12.612499715740842</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>12.620223637895435</v>
+        <v>12.612499715740842</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>16.224203700320246</v>
+        <v>16.214274043762874</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12284,23 +12284,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>10.530427997292406</v>
+        <v>10.527267277623988</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>12.388738820344006</v>
+        <v>12.385020326616456</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>12.388738820344006</v>
+        <v>12.385020326616456</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>12.388738820344006</v>
+        <v>12.385020326616456</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>16.36631511375565</v>
+        <v>16.361900093967424</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1836.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1836.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C8A5D5-A93E-4D03-953E-3F8C35FBBD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2941B69-5DC0-4F8D-BE43-6E4B463EA4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="C44" s="81">
         <f>(0.61+0.42)/Exchange_Rate</f>
-        <v>0.13255641195905099</v>
+        <v>0.13232690550692081</v>
       </c>
       <c r="D44" s="81">
         <f>(0.45+0.42)/Exchange_Rate</f>
-        <v>0.11196512466444111</v>
+        <v>0.11177126970002048</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
@@ -3660,11 +3660,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.469849246231156E-2</v>
+        <v>5.9814169570267139E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.4648241206030151E-2</v>
+        <v>5.0522648083623695E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4264,16 +4264,16 @@
       </c>
       <c r="C98" s="104">
         <f>C44</f>
-        <v>0.13255641195905099</v>
+        <v>0.13232690550692081</v>
       </c>
       <c r="D98" s="105"/>
       <c r="E98" s="106">
         <f>F98</f>
-        <v>0.13255641195905099</v>
+        <v>0.13232690550692081</v>
       </c>
       <c r="F98" s="106">
         <f>C98</f>
-        <v>0.13255641195905099</v>
+        <v>0.13232690550692081</v>
       </c>
     </row>
   </sheetData>
@@ -4398,27 +4398,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1836.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.92</v>
+        <v>17.22</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4428,40 +4428,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>九興控股</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>821163500</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>13072.922920000001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>14140.43547</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4484,11 +4484,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4508,7 +4508,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7702767054239912</v>
+        <v>7.7837533950805664</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5246251911302042</v>
+        <v>1.6462682083510909</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.302735957196644</v>
+        <v>14.364101693864432</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G25" s="44">
         <f>Fin_Analysis!I88</f>
-        <v>0.86066696205480797</v>
+        <v>0.85917681444136862</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.469849246231156E-2</v>
+        <v>5.9814169570267139E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4747,10 +4747,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4758,22 +4758,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.333909796868259</v>
+        <v>10.070265501876918</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>18.985955065797771</v>
+        <v>18.535138835819236</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.157540937492069</v>
-      </c>
-      <c r="G29" s="314">
+        <v>11.847371178678728</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.509526144171975</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>16.117512031147164</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5756,15 +5756,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10107,11 +10107,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-325706.75039619516</v>
+        <v>-327629.56156940572</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.2951573720719991</v>
+        <v>1.2968998348615641</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11199,11 +11199,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5246251911302042</v>
+        <v>1.6462682083510909</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>24099.750396195137</v>
+        <v>26022.561569405694</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11239,7 +11239,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11250,11 +11250,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11266,11 +11266,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.853962513303153</v>
+        <v>-2.8589123971414514</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-2.853962513303153</v>
+        <v>-2.8589123971414514</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-2.853962513303153</v>
+        <v>-2.8589123971414514</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11911,17 +11911,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5172506108340101E-2</v>
+        <v>6.9617997791476663E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5172506108340087E-2</v>
+        <v>6.9617997791476649E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5172506108340087E-2</v>
+        <v>6.9617997791476649E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11932,27 +11932,27 @@
       </c>
       <c r="C88" s="234">
         <f>Inputs!C44</f>
-        <v>0.13255641195905099</v>
+        <v>0.13232690550692081</v>
       </c>
       <c r="D88" s="235">
         <f>C88/C86</f>
-        <v>0.86066696205480786</v>
+        <v>0.85917681444136851</v>
       </c>
       <c r="E88" s="255">
         <f>Inputs!E98</f>
-        <v>0.13255641195905099</v>
+        <v>0.13232690550692081</v>
       </c>
       <c r="F88" s="235">
         <f>E88/E86</f>
-        <v>0.86066696205480797</v>
+        <v>0.85917681444136862</v>
       </c>
       <c r="H88" s="255">
         <f>Inputs!F98</f>
-        <v>0.13255641195905099</v>
+        <v>0.13232690550692081</v>
       </c>
       <c r="I88" s="235">
         <f>H88/H86</f>
-        <v>0.86066696205480797</v>
+        <v>0.85917681444136862</v>
       </c>
       <c r="K88" s="75"/>
     </row>
@@ -11962,17 +11962,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.469849246231156E-2</v>
+        <v>5.9814169570267139E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.469849246231156E-2</v>
+        <v>5.9814169570267139E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.469849246231156E-2</v>
+        <v>5.9814169570267139E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12032,14 +12032,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.654064420005614</v>
+        <v>26.15280244737346</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.654064420005614</v>
+        <v>26.15280244737346</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12060,14 +12060,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.05934083095395</v>
+        <v>21.65732735435526</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>22.05934083095395</v>
+        <v>21.65732735435526</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12110,21 +12110,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12514160.443027169</v>
+        <v>12278816.495077569</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.239547840384002</v>
+        <v>14.952949680639202</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>15.239547840384002</v>
+        <v>14.952949680639202</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.591533047063908</v>
+        <v>19.223090533107637</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12134,14 +12134,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-187261.72911008768</v>
+        <v>-202553.20196455464</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.22804438958878184</v>
+        <v>-0.2466661048190216</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-2343569.8462928138</v>
+        <v>-2347634.5102300644</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-2.853962513303153</v>
+        <v>-2.8589123971414514</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-2.853962513303153</v>
+        <v>-2.8589123971414514</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12174,23 +12174,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.333909796868259</v>
+        <v>10.070265501876918</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.157540937492069</v>
+        <v>11.847371178678728</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>12.157540937492069</v>
+        <v>11.847371178678728</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.157540937492069</v>
+        <v>11.847371178678728</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.509526144171975</v>
+        <v>16.117512031147164</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12229,23 +12229,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>10.720624758379715</v>
+        <v>10.525250124864892</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>12.612499715740842</v>
+        <v>12.382647205723403</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>12.612499715740842</v>
+        <v>12.382647205723403</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>12.612499715740842</v>
+        <v>12.382647205723403</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>16.214274043762874</v>
+        <v>15.918782137236347</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12284,23 +12284,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>10.527267277623988</v>
+        <v>10.297757813370904</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>12.385020326616456</v>
+        <v>12.115009192201065</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>12.385020326616456</v>
+        <v>12.115009192201065</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>12.385020326616456</v>
+        <v>12.115009192201065</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>16.361900093967424</v>
+        <v>16.018147084191757</v>
       </c>
       <c r="K106" s="75"/>
     </row>
